--- a/examples/results/number-10_month-all_230808.xlsx
+++ b/examples/results/number-10_month-all_230808.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,21 @@
           <t>상계거래 후 전력량요금</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>옥션 후 총 비용</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>상계거래 후 총 비용</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>편익</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -550,34 +565,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>277.0136173110866</v>
+        <v>277.056463050162</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>127.2926679435427</v>
+        <v>128.3176379106939</v>
       </c>
       <c r="F2" t="n">
-        <v>-53</v>
+        <v>-98</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>1058.34843617546</v>
+        <v>1300.25021103343</v>
       </c>
       <c r="J2" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="K2" t="n">
-        <v>-1943.405502985373</v>
+        <v>-2107.468087810125</v>
       </c>
       <c r="L2" t="n">
-        <v>-11</v>
+        <v>116.3176379106939</v>
       </c>
       <c r="M2" t="n">
         <v>108.9506451612903</v>
@@ -586,28 +601,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1195.83</v>
+        <v>-13399.84196333435</v>
       </c>
       <c r="P2" t="n">
         <v>1600</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.0136173110866</v>
+        <v>270.056463050162</v>
       </c>
       <c r="R2" t="n">
         <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>33981.8580991241</v>
+        <v>33795.02158739162</v>
       </c>
       <c r="T2" t="n">
-        <v>149.7209493675439</v>
+        <v>148.7388251394681</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>15061.92750637491</v>
+        <v>14963.12580903049</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21187.96174728057</v>
+      </c>
+      <c r="X2" t="n">
+        <v>16563.12580903049</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-4624.835938250082</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>255.9999999999998</v>
+        <v>255.9999999999997</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -638,7 +662,7 @@
         <v>56</v>
       </c>
       <c r="I3" t="n">
-        <v>10348.1006298364</v>
+        <v>10634.64126133108</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -662,22 +686,31 @@
         <v>1600</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.9999999999998</v>
+        <v>199.9999999999997</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>20119.99999999998</v>
+        <v>20119.99999999997</v>
       </c>
       <c r="T3" t="n">
-        <v>255.9999999999998</v>
+        <v>255.9999999999997</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>31051.19999999997</v>
+        <v>31051.19999999995</v>
+      </c>
+      <c r="W3" t="n">
+        <v>32354.64126133105</v>
+      </c>
+      <c r="X3" t="n">
+        <v>32651.19999999995</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>296.5587386688967</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999994</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -732,22 +765,31 @@
         <v>910</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999994</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>6036.000000000002</v>
+        <v>6035.999999999994</v>
       </c>
       <c r="T4" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999994</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>6036.000000000002</v>
+        <v>6035.999999999994</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6945.999999999994</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6945.999999999994</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -760,19 +802,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>180.9979923280744</v>
+        <v>181.4840579237318</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>319.7964100488331</v>
+        <v>321.9193493579525</v>
       </c>
       <c r="F5" t="n">
-        <v>-214</v>
+        <v>-293</v>
       </c>
       <c r="G5" t="n">
-        <v>138.7984177207587</v>
+        <v>140.4352914342206</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -781,34 +823,34 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-175</v>
+        <v>-170</v>
       </c>
       <c r="K5" t="n">
-        <v>-30428.12675102856</v>
+        <v>-29582.3903689462</v>
       </c>
       <c r="L5" t="n">
-        <v>-175</v>
+        <v>151.9193493579525</v>
       </c>
       <c r="M5" t="n">
         <v>108.9506451612903</v>
       </c>
       <c r="N5" t="n">
-        <v>-15122.17715804293</v>
+        <v>-15300.51560517217</v>
       </c>
       <c r="O5" t="n">
-        <v>18950.16999999999</v>
+        <v>-16456.77116956484</v>
       </c>
       <c r="P5" t="n">
         <v>910</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.9979923280744</v>
+        <v>181.4840579237318</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>18208.39802820429</v>
+        <v>18257.29622712742</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -818,6 +860,15 @@
       </c>
       <c r="V5" t="n">
         <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-26871.86531138362</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-14390.51560517217</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12481.34970621145</v>
       </c>
     </row>
     <row r="6">
@@ -830,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>480.0000000000001</v>
+        <v>480.0000000000005</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -845,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="I6" t="n">
-        <v>37854.38301397122</v>
+        <v>33632.99307833725</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -872,22 +923,31 @@
         <v>7300</v>
       </c>
       <c r="Q6" t="n">
-        <v>261.0000000000001</v>
+        <v>284.0000000000005</v>
       </c>
       <c r="R6" t="n">
         <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>32027.20000000002</v>
+        <v>36516.8000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>480.0000000000001</v>
+        <v>480.0000000000005</v>
       </c>
       <c r="U6" t="n">
         <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>82192.00000000003</v>
+        <v>82192.00000000015</v>
+      </c>
+      <c r="W6" t="n">
+        <v>77449.79307833734</v>
+      </c>
+      <c r="X6" t="n">
+        <v>89492.00000000015</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12042.2069216628</v>
       </c>
     </row>
     <row r="7">
@@ -900,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>392.0000000000002</v>
+        <v>391.9999999999995</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -915,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I7" t="n">
-        <v>30843.067658031</v>
+        <v>31165.05690350306</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -942,22 +1002,31 @@
         <v>1600</v>
       </c>
       <c r="Q7" t="n">
-        <v>214.0000000000002</v>
+        <v>211.9999999999995</v>
       </c>
       <c r="R7" t="n">
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>22852.80000000004</v>
+        <v>22462.3999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>392.0000000000002</v>
+        <v>391.9999999999995</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>57598.40000000005</v>
+        <v>57598.3999999999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>55227.45690350296</v>
+      </c>
+      <c r="X7" t="n">
+        <v>59198.3999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3970.943096496943</v>
       </c>
     </row>
     <row r="8">
@@ -970,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>178.227352909303</v>
+        <v>182.4834206767545</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>161.5064035417583</v>
+        <v>166.7445955372874</v>
       </c>
       <c r="F8" t="n">
-        <v>-65</v>
+        <v>-134</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -991,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="K8" t="n">
-        <v>-8279.292580210849</v>
+        <v>-7959.045238188872</v>
       </c>
       <c r="L8" t="n">
-        <v>-48</v>
+        <v>121.7445955372874</v>
       </c>
       <c r="M8" t="n">
         <v>108.9506451612903</v>
@@ -1006,28 +1075,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5197.719999999999</v>
+        <v>-13229.70473023122</v>
       </c>
       <c r="P8" t="n">
         <v>910</v>
       </c>
       <c r="Q8" t="n">
-        <v>178.227352909303</v>
+        <v>182.4834206767545</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>17929.67170267588</v>
+        <v>18357.8321200815</v>
       </c>
       <c r="T8" t="n">
-        <v>16.72094936754468</v>
+        <v>15.73882513946705</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1682.127506374994</v>
+        <v>1583.325809030385</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-1920.917848338595</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2493.325809030385</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4414.24365736898</v>
       </c>
     </row>
     <row r="9">
@@ -1040,19 +1118,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>34.94005476707059</v>
+        <v>35.57922422149483</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>405.7384724878293</v>
+        <v>408.0145156557159</v>
       </c>
       <c r="F9" t="n">
-        <v>-261</v>
+        <v>-378</v>
       </c>
       <c r="G9" t="n">
-        <v>370.7984177207587</v>
+        <v>372.4352914342211</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1061,34 +1139,34 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-283</v>
+        <v>-296</v>
       </c>
       <c r="K9" t="n">
-        <v>-49309.0119559768</v>
+        <v>-51680.07965970246</v>
       </c>
       <c r="L9" t="n">
-        <v>-283</v>
+        <v>112.0145156557159</v>
       </c>
       <c r="M9" t="n">
         <v>108.9506451612903</v>
       </c>
       <c r="N9" t="n">
-        <v>-40398.72683546229</v>
+        <v>-40577.06528259157</v>
       </c>
       <c r="O9" t="n">
-        <v>30734.13</v>
+        <v>-12105.38410158423</v>
       </c>
       <c r="P9" t="n">
         <v>910</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.94005476707059</v>
+        <v>35.57922422149483</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>3514.969509567301</v>
+        <v>3579.26995668238</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1098,6 +1176,15 @@
       </c>
       <c r="V9" t="n">
         <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-59296.19380460431</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-39667.06528259157</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>19629.12852201274</v>
       </c>
     </row>
     <row r="10">
@@ -1110,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>359.0000000000001</v>
+        <v>359.0000000000005</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1125,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I10" t="n">
-        <v>25468.46792656651</v>
+        <v>28153.2427512869</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1152,22 +1239,31 @@
         <v>1600</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.0000000000001</v>
+        <v>199.0000000000005</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>22267.20000000001</v>
+        <v>20019.40000000005</v>
       </c>
       <c r="T10" t="n">
-        <v>359.0000000000001</v>
+        <v>359.0000000000005</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>51156.80000000001</v>
+        <v>51156.80000000009</v>
+      </c>
+      <c r="W10" t="n">
+        <v>49772.64275128695</v>
+      </c>
+      <c r="X10" t="n">
+        <v>52756.80000000009</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2984.157248713142</v>
       </c>
     </row>
     <row r="11">
@@ -1180,19 +1276,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>114.9662109469061</v>
+        <v>115.0689843020137</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>189.2452615793616</v>
+        <v>190.3301591625464</v>
       </c>
       <c r="F11" t="n">
-        <v>-86</v>
+        <v>-158</v>
       </c>
       <c r="G11" t="n">
-        <v>74.27905063245548</v>
+        <v>75.26117486053273</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,34 +1297,34 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-90</v>
+        <v>-76</v>
       </c>
       <c r="K11" t="n">
-        <v>-15532.90130627188</v>
+        <v>-13244.78347603282</v>
       </c>
       <c r="L11" t="n">
-        <v>-90</v>
+        <v>114.3301591625464</v>
       </c>
       <c r="M11" t="n">
         <v>108.9506451612903</v>
       </c>
       <c r="N11" t="n">
-        <v>-8092.750488374175</v>
+        <v>-8199.753556651725</v>
       </c>
       <c r="O11" t="n">
-        <v>9778.399999999998</v>
+        <v>-12400.99350118079</v>
       </c>
       <c r="P11" t="n">
         <v>910</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.9662109469061</v>
+        <v>115.0689843020137</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>11565.60082125875</v>
+        <v>11575.93982078257</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1238,6 +1334,15 @@
       </c>
       <c r="V11" t="n">
         <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-13159.83715643103</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-7289.753556651725</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5870.083599779309</v>
       </c>
     </row>
     <row r="12">
@@ -1250,34 +1355,34 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>382.8646778488995</v>
+        <v>383.1737962853055</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>85.81020061509318</v>
+        <v>89.96805316319512</v>
       </c>
       <c r="F12" t="n">
-        <v>-34</v>
+        <v>-63</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" t="n">
-        <v>6011.986350175968</v>
+        <v>6366.194918299223</v>
       </c>
       <c r="J12" t="n">
         <v>-1</v>
       </c>
       <c r="K12" t="n">
-        <v>-159.2562589344906</v>
+        <v>-195.2</v>
       </c>
       <c r="L12" t="n">
-        <v>-1</v>
+        <v>88.96805316319512</v>
       </c>
       <c r="M12" t="n">
         <v>104.4352380952381</v>
@@ -1286,28 +1391,37 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.03</v>
+        <v>-12673.62300373345</v>
       </c>
       <c r="P12" t="n">
         <v>1600</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.8646778488995</v>
+        <v>349.1737962853055</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>49568.78511610519</v>
+        <v>49238.72503489163</v>
       </c>
       <c r="T12" t="n">
-        <v>297.0544772338063</v>
+        <v>293.2057431221103</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>39065.033956039</v>
+        <v>38313.76105743594</v>
+      </c>
+      <c r="W12" t="n">
+        <v>44336.0969494574</v>
+      </c>
+      <c r="X12" t="n">
+        <v>39913.76105743594</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-4422.335892021467</v>
       </c>
     </row>
     <row r="13">
@@ -1320,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>192.0000000000001</v>
+        <v>191.9999999999998</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1362,22 +1476,31 @@
         <v>910</v>
       </c>
       <c r="Q13" t="n">
-        <v>192.0000000000001</v>
+        <v>191.9999999999998</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>19315.20000000001</v>
+        <v>19315.19999999998</v>
       </c>
       <c r="T13" t="n">
-        <v>192.0000000000001</v>
+        <v>191.9999999999998</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>19315.20000000001</v>
+        <v>19315.19999999998</v>
+      </c>
+      <c r="W13" t="n">
+        <v>20225.19999999998</v>
+      </c>
+      <c r="X13" t="n">
+        <v>20225.19999999998</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1390,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>507.9999999999998</v>
+        <v>507.9999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -1405,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I14" t="n">
-        <v>28212.90471557735</v>
+        <v>26140.22859062558</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1432,22 +1555,31 @@
         <v>7300</v>
       </c>
       <c r="Q14" t="n">
-        <v>351.9999999999998</v>
+        <v>363.9999999999999</v>
       </c>
       <c r="R14" t="n">
         <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>49790.39999999997</v>
+        <v>52132.79999999997</v>
       </c>
       <c r="T14" t="n">
-        <v>507.9999999999998</v>
+        <v>507.9999999999999</v>
       </c>
       <c r="U14" t="n">
         <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>90253.19999999995</v>
+        <v>90253.19999999997</v>
+      </c>
+      <c r="W14" t="n">
+        <v>85573.02859062556</v>
+      </c>
+      <c r="X14" t="n">
+        <v>97553.19999999997</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11980.17140937441</v>
       </c>
     </row>
     <row r="15">
@@ -1460,19 +1592,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>79.1097246703994</v>
+        <v>79.9046795998199</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>335.685595947388</v>
+        <v>342.8951077296371</v>
       </c>
       <c r="F15" t="n">
-        <v>-217</v>
+        <v>-313</v>
       </c>
       <c r="G15" t="n">
-        <v>256.5758712769886</v>
+        <v>262.9904281298171</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1481,34 +1613,34 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-265</v>
+        <v>-275</v>
       </c>
       <c r="K15" t="n">
-        <v>-48304.87846047408</v>
+        <v>-50017.21022349523</v>
       </c>
       <c r="L15" t="n">
-        <v>-265</v>
+        <v>67.89510772963706</v>
       </c>
       <c r="M15" t="n">
         <v>104.4352380952381</v>
       </c>
       <c r="N15" t="n">
-        <v>-26795.56220630546</v>
+        <v>-27465.46797850605</v>
       </c>
       <c r="O15" t="n">
-        <v>27504.37</v>
+        <v>-7055.912960906356</v>
       </c>
       <c r="P15" t="n">
         <v>910</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.1097246703994</v>
+        <v>79.9046795998199</v>
       </c>
       <c r="R15" t="n">
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>7958.438301842179</v>
+        <v>8038.410767741882</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1518,6 +1650,15 @@
       </c>
       <c r="V15" t="n">
         <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-48124.71241665971</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-26555.46797850605</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>21569.24443815365</v>
       </c>
     </row>
     <row r="16">
@@ -1530,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>346.9999999999995</v>
+        <v>347.0000000000007</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1545,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I16" t="n">
-        <v>20931.22425762301</v>
+        <v>21335.792385531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1572,22 +1713,31 @@
         <v>1600</v>
       </c>
       <c r="Q16" t="n">
-        <v>232.9999999999995</v>
+        <v>230.0000000000007</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>26561.59999999991</v>
+        <v>25976.00000000013</v>
       </c>
       <c r="T16" t="n">
-        <v>346.9999999999995</v>
+        <v>347.0000000000007</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>48814.39999999991</v>
+        <v>48814.40000000013</v>
+      </c>
+      <c r="W16" t="n">
+        <v>48911.79238553112</v>
+      </c>
+      <c r="X16" t="n">
+        <v>50414.40000000013</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1502.607614469009</v>
       </c>
     </row>
     <row r="17">
@@ -1600,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>185</v>
+        <v>185.0000000000002</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1642,22 +1792,31 @@
         <v>910</v>
       </c>
       <c r="Q17" t="n">
-        <v>185</v>
+        <v>185.0000000000002</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>18611</v>
+        <v>18611.00000000002</v>
       </c>
       <c r="T17" t="n">
-        <v>185</v>
+        <v>185.0000000000002</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>18611</v>
+        <v>18611.00000000002</v>
+      </c>
+      <c r="W17" t="n">
+        <v>19521.00000000002</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19521.00000000002</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1670,16 +1829,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>183.2810827321829</v>
+        <v>183.3169499240906</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>139.226605498376</v>
+        <v>143.1112068019811</v>
       </c>
       <c r="F18" t="n">
-        <v>-59</v>
+        <v>-114</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1691,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-38</v>
+        <v>-48</v>
       </c>
       <c r="K18" t="n">
-        <v>-6850.794615288823</v>
+        <v>-8432.478318801674</v>
       </c>
       <c r="L18" t="n">
-        <v>-38</v>
+        <v>95.11120680198107</v>
       </c>
       <c r="M18" t="n">
         <v>104.4352380952381</v>
@@ -1706,28 +1865,37 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3986.33</v>
+        <v>-9826.686993537089</v>
       </c>
       <c r="P18" t="n">
         <v>910</v>
       </c>
       <c r="Q18" t="n">
-        <v>183.2810827321829</v>
+        <v>183.3169499240906</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>18438.0769228576</v>
+        <v>18441.68516236351</v>
       </c>
       <c r="T18" t="n">
-        <v>44.05447723380698</v>
+        <v>40.20574312210951</v>
       </c>
       <c r="U18" t="n">
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>4431.880409720981</v>
+        <v>4044.697758084216</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1092.51985002475</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4954.697758084216</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3862.177908059466</v>
       </c>
     </row>
     <row r="19">
@@ -1740,19 +1908,19 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6057923879457</v>
+        <v>210.69003971819</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>272.1816636649343</v>
+        <v>278.6804678480069</v>
       </c>
       <c r="F19" t="n">
-        <v>-175</v>
+        <v>-252</v>
       </c>
       <c r="G19" t="n">
-        <v>61.57587127698858</v>
+        <v>67.99042812981691</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1761,34 +1929,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-154</v>
+        <v>-166</v>
       </c>
       <c r="K19" t="n">
-        <v>-27672.79575418109</v>
+        <v>-29882.75616057413</v>
       </c>
       <c r="L19" t="n">
-        <v>-154</v>
+        <v>112.6804678480069</v>
       </c>
       <c r="M19" t="n">
         <v>104.4352380952381</v>
       </c>
       <c r="N19" t="n">
-        <v>-6430.690777734035</v>
+        <v>-7100.596549934602</v>
       </c>
       <c r="O19" t="n">
-        <v>15985.36</v>
+        <v>-11647.51772679698</v>
       </c>
       <c r="P19" t="n">
         <v>1600</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.6057923879457</v>
+        <v>210.69003971819</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>22190.25067412701</v>
+        <v>22206.69575299068</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1798,6 +1966,15 @@
       </c>
       <c r="V19" t="n">
         <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-17723.57813438043</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-5500.596549934602</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12222.98158444583</v>
       </c>
     </row>
     <row r="20">
@@ -1810,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>538.0000000000002</v>
+        <v>537.9999999999995</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -1825,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="I20" t="n">
-        <v>22650.59704152049</v>
+        <v>29288.7192121917</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1852,22 +2029,31 @@
         <v>7300</v>
       </c>
       <c r="Q20" t="n">
-        <v>413.0000000000002</v>
+        <v>375.9999999999995</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>62902.70000000006</v>
+        <v>54475.19999999991</v>
       </c>
       <c r="T20" t="n">
-        <v>538.0000000000002</v>
+        <v>537.9999999999995</v>
       </c>
       <c r="U20" t="n">
         <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>98890.20000000007</v>
+        <v>98890.19999999987</v>
+      </c>
+      <c r="W20" t="n">
+        <v>91063.91921219161</v>
+      </c>
+      <c r="X20" t="n">
+        <v>106190.1999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15126.28078780825</v>
       </c>
     </row>
     <row r="21">
@@ -1880,34 +2066,34 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>398.8450715923465</v>
+        <v>404.9608006971667</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>81.79059435853935</v>
+        <v>91.75505757505692</v>
       </c>
       <c r="F21" t="n">
-        <v>-33</v>
+        <v>-68</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I21" t="n">
-        <v>5790.467225179659</v>
+        <v>6258.139113123128</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-182.1287093827047</v>
       </c>
       <c r="L21" t="n">
-        <v>0.011071841007313</v>
+        <v>90.75505757505692</v>
       </c>
       <c r="M21" t="n">
         <v>104.4352380952381</v>
@@ -1916,28 +2102,37 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.176936699077372</v>
+        <v>-12959.97882072777</v>
       </c>
       <c r="P21" t="n">
-        <v>1600</v>
+        <v>7300</v>
       </c>
       <c r="Q21" t="n">
-        <v>367.8450715923465</v>
+        <v>370.9608006971667</v>
       </c>
       <c r="R21" t="n">
         <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>52883.35797482603</v>
+        <v>53491.54829608693</v>
       </c>
       <c r="T21" t="n">
-        <v>317.0544772338071</v>
+        <v>313.2057431221098</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>42969.03395603914</v>
+        <v>42217.76105743583</v>
+      </c>
+      <c r="W21" t="n">
+        <v>53907.57987909958</v>
+      </c>
+      <c r="X21" t="n">
+        <v>49517.76105743583</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-4389.818821663757</v>
       </c>
     </row>
     <row r="22">
@@ -1950,34 +2145,34 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>309.4481294456876</v>
+        <v>311.7202534476235</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>120.7271800781423</v>
+        <v>123.9814283081558</v>
       </c>
       <c r="F22" t="n">
-        <v>-48</v>
+        <v>-91</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>1070.578919689239</v>
+        <v>902.6709255475535</v>
       </c>
       <c r="J22" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="K22" t="n">
-        <v>-2045.793347707358</v>
+        <v>-3425.403147131796</v>
       </c>
       <c r="L22" t="n">
-        <v>-12</v>
+        <v>103.9814283081558</v>
       </c>
       <c r="M22" t="n">
         <v>110.6144086021505</v>
@@ -1986,28 +2181,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1308.4</v>
+        <v>-11985.25552225372</v>
       </c>
       <c r="P22" t="n">
         <v>1600</v>
       </c>
       <c r="Q22" t="n">
-        <v>303.4481294456876</v>
+        <v>306.7202534476235</v>
       </c>
       <c r="R22" t="n">
         <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>40313.07486779823</v>
+        <v>40951.7934729761</v>
       </c>
       <c r="T22" t="n">
-        <v>188.7209493675454</v>
+        <v>187.7388251394676</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>18985.32750637507</v>
+        <v>18886.52580903044</v>
+      </c>
+      <c r="W22" t="n">
+        <v>28043.80572913814</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20486.52580903044</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-7557.279920107696</v>
       </c>
     </row>
     <row r="23">
@@ -2020,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>522</v>
+        <v>522.0000000000008</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -2035,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I23" t="n">
-        <v>20096.04629027988</v>
+        <v>21894.92352132839</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2062,22 +2266,31 @@
         <v>7300</v>
       </c>
       <c r="Q23" t="n">
-        <v>407</v>
+        <v>396.0000000000008</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>61175.3</v>
+        <v>58379.20000000015</v>
       </c>
       <c r="T23" t="n">
-        <v>522</v>
+        <v>522.0000000000008</v>
       </c>
       <c r="U23" t="n">
         <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>94283.79999999999</v>
+        <v>94283.80000000022</v>
+      </c>
+      <c r="W23" t="n">
+        <v>87574.12352132854</v>
+      </c>
+      <c r="X23" t="n">
+        <v>101583.8000000002</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>14009.67647867168</v>
       </c>
     </row>
     <row r="24">
@@ -2090,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>400.0000000000003</v>
+        <v>400.0000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -2105,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I24" t="n">
-        <v>16008.72039550395</v>
+        <v>14458.94426508576</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2132,22 +2345,31 @@
         <v>7300</v>
       </c>
       <c r="Q24" t="n">
-        <v>312.0000000000003</v>
+        <v>318.0000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>41982.40000000007</v>
+        <v>43153.60000000001</v>
       </c>
       <c r="T24" t="n">
-        <v>400.0000000000003</v>
+        <v>400.0000000000001</v>
       </c>
       <c r="U24" t="n">
         <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>59160.00000000009</v>
+        <v>59160.00000000001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>64912.54426508577</v>
+      </c>
+      <c r="X24" t="n">
+        <v>66460.00000000001</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1547.455734914241</v>
       </c>
     </row>
     <row r="25">
@@ -2160,19 +2382,19 @@
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>154.3783485010145</v>
+        <v>156.9722692313274</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>337.1767662217733</v>
+        <v>341.4075606655485</v>
       </c>
       <c r="F25" t="n">
-        <v>-221</v>
+        <v>-312</v>
       </c>
       <c r="G25" t="n">
-        <v>182.7984177207588</v>
+        <v>184.4352914342211</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2181,34 +2403,34 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-144</v>
+        <v>-147</v>
       </c>
       <c r="K25" t="n">
-        <v>-25639.3552117358</v>
+        <v>-26177.30420724645</v>
       </c>
       <c r="L25" t="n">
-        <v>-144</v>
+        <v>194.4075606655485</v>
       </c>
       <c r="M25" t="n">
         <v>110.6144086021505</v>
       </c>
       <c r="N25" t="n">
-        <v>-20220.13886959061</v>
+        <v>-20401.20068736165</v>
       </c>
       <c r="O25" t="n">
-        <v>15789.88</v>
+        <v>-21317.39605821787</v>
       </c>
       <c r="P25" t="n">
         <v>910</v>
       </c>
       <c r="Q25" t="n">
-        <v>154.3783485010145</v>
+        <v>156.9722692313274</v>
       </c>
       <c r="R25" t="n">
         <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>15530.46185920205</v>
+        <v>15791.41028467154</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2218,6 +2440,15 @@
       </c>
       <c r="V25" t="n">
         <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-30793.28998079278</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-19491.20068736165</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11302.08929343112</v>
       </c>
     </row>
     <row r="26">
@@ -2245,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>2414.885588726451</v>
+        <v>2553.914489743847</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2272,13 +2503,13 @@
         <v>1600</v>
       </c>
       <c r="Q26" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R26" t="n">
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>20120</v>
+        <v>20019.4</v>
       </c>
       <c r="T26" t="n">
         <v>213</v>
@@ -2287,7 +2518,16 @@
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>22657.59999999999</v>
+        <v>22657.60000000001</v>
+      </c>
+      <c r="W26" t="n">
+        <v>24173.31448974385</v>
+      </c>
+      <c r="X26" t="n">
+        <v>24257.60000000001</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>84.28551025615889</v>
       </c>
     </row>
     <row r="27">
@@ -2300,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>83.99999999999994</v>
+        <v>84.00000000000004</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2342,22 +2582,31 @@
         <v>910</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.99999999999994</v>
+        <v>84.00000000000004</v>
       </c>
       <c r="R27" t="n">
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>8450.399999999994</v>
+        <v>8450.400000000003</v>
       </c>
       <c r="T27" t="n">
-        <v>83.99999999999994</v>
+        <v>84.00000000000004</v>
       </c>
       <c r="U27" t="n">
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>8450.399999999994</v>
+        <v>8450.400000000003</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9360.400000000003</v>
+      </c>
+      <c r="X27" t="n">
+        <v>9360.400000000003</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2370,34 +2619,34 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>239.2744189080339</v>
+        <v>240.0035605122627</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>146.5534695404888</v>
+        <v>148.2647353727952</v>
       </c>
       <c r="F28" t="n">
-        <v>-62</v>
+        <v>-120</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>161.4677412610573</v>
       </c>
       <c r="J28" t="n">
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="K28" t="n">
-        <v>-4864.84515900893</v>
+        <v>-4415.425543673017</v>
       </c>
       <c r="L28" t="n">
-        <v>-28</v>
+        <v>122.2647353727952</v>
       </c>
       <c r="M28" t="n">
         <v>110.6144086021505</v>
@@ -2406,28 +2655,37 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3060.87</v>
+        <v>-13564.71983732409</v>
       </c>
       <c r="P28" t="n">
         <v>1600</v>
       </c>
       <c r="Q28" t="n">
-        <v>239.2744189080339</v>
+        <v>239.0035605122627</v>
       </c>
       <c r="R28" t="n">
         <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>27786.36657084821</v>
+        <v>27733.49501199367</v>
       </c>
       <c r="T28" t="n">
-        <v>92.72094936754502</v>
+        <v>91.73882513946745</v>
       </c>
       <c r="U28" t="n">
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>9327.727506375028</v>
+        <v>9228.925809030425</v>
+      </c>
+      <c r="W28" t="n">
+        <v>11514.81737225762</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10828.92580903042</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-685.8915632271928</v>
       </c>
     </row>
     <row r="29">
@@ -2440,34 +2698,34 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>375.4548038272613</v>
+        <v>373.4258217296917</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>253.2532215480197</v>
+        <v>252.8611131639122</v>
       </c>
       <c r="F29" t="n">
-        <v>-166</v>
+        <v>-220</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>357.355179117195</v>
+        <v>182.5532203177151</v>
       </c>
       <c r="J29" t="n">
-        <v>-53</v>
+        <v>-49</v>
       </c>
       <c r="K29" t="n">
-        <v>-9393.505245534794</v>
+        <v>-8640.175116473121</v>
       </c>
       <c r="L29" t="n">
-        <v>-53</v>
+        <v>203.8611131639122</v>
       </c>
       <c r="M29" t="n">
         <v>110.6144086021505</v>
@@ -2476,28 +2734,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5793.369999999999</v>
+        <v>-22533.70954220278</v>
       </c>
       <c r="P29" t="n">
         <v>1600</v>
       </c>
       <c r="Q29" t="n">
-        <v>373.4548038272613</v>
+        <v>372.4258217296917</v>
       </c>
       <c r="R29" t="n">
         <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>53978.37770708141</v>
+        <v>53777.52040163583</v>
       </c>
       <c r="T29" t="n">
-        <v>122.2015822792417</v>
+        <v>120.5647085657796</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>12293.47917729171</v>
+        <v>12128.80968171742</v>
+      </c>
+      <c r="W29" t="n">
+        <v>24386.18896327764</v>
+      </c>
+      <c r="X29" t="n">
+        <v>13728.80968171742</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-10657.37928156022</v>
       </c>
     </row>
     <row r="30">
@@ -2510,7 +2777,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>220.0000000000003</v>
+        <v>220.0000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -2528,7 +2795,7 @@
         <v>21</v>
       </c>
       <c r="I30" t="n">
-        <v>3821.177900930663</v>
+        <v>3812.845438985322</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2552,22 +2819,31 @@
         <v>1600</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.0000000000003</v>
+        <v>199.0000000000001</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>20019.40000000003</v>
+        <v>20019.40000000001</v>
       </c>
       <c r="T30" t="n">
-        <v>220.0000000000003</v>
+        <v>220.0000000000001</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>24024.00000000006</v>
+        <v>24024.00000000001</v>
+      </c>
+      <c r="W30" t="n">
+        <v>25432.24543898533</v>
+      </c>
+      <c r="X30" t="n">
+        <v>25624.00000000001</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>191.7545610146844</v>
       </c>
     </row>
     <row r="31">
@@ -2580,34 +2856,34 @@
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>360.6603308396091</v>
+        <v>364.8983856801419</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>109.9393814720647</v>
+        <v>115.1595605406745</v>
       </c>
       <c r="F31" t="n">
-        <v>-41</v>
+        <v>-82</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>715.6906728594629</v>
+        <v>1875.450610517083</v>
       </c>
       <c r="J31" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="K31" t="n">
-        <v>-2149.120101057591</v>
+        <v>-3085.390826378601</v>
       </c>
       <c r="L31" t="n">
-        <v>-12</v>
+        <v>97.15956054067455</v>
       </c>
       <c r="M31" t="n">
         <v>110.6144086021505</v>
@@ -2616,28 +2892,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1323.41</v>
+        <v>-11786.065494829</v>
       </c>
       <c r="P31" t="n">
         <v>1600</v>
       </c>
       <c r="Q31" t="n">
-        <v>356.6603308396091</v>
+        <v>354.8983856801419</v>
       </c>
       <c r="R31" t="n">
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>50700.0965798917</v>
+        <v>50356.16488476369</v>
       </c>
       <c r="T31" t="n">
-        <v>250.7209493675444</v>
+        <v>249.7388251394673</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>30020.72931654467</v>
+        <v>29829.01866722402</v>
+      </c>
+      <c r="W31" t="n">
+        <v>38960.15917407317</v>
+      </c>
+      <c r="X31" t="n">
+        <v>31429.01866722402</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-7531.140506849144</v>
       </c>
     </row>
     <row r="32">
@@ -2650,34 +2935,34 @@
         <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>340.4330644949752</v>
+        <v>344.807568501268</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>107.1180578165351</v>
+        <v>113.3546474321935</v>
       </c>
       <c r="F32" t="n">
-        <v>-41</v>
+        <v>-90</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I32" t="n">
-        <v>5230.302070746345</v>
+        <v>4235.943611203717</v>
       </c>
       <c r="J32" t="n">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="K32" t="n">
-        <v>-2936.459510800059</v>
+        <v>-3601.95232745941</v>
       </c>
       <c r="L32" t="n">
-        <v>-17</v>
+        <v>92.35464743219354</v>
       </c>
       <c r="M32" t="n">
         <v>96.09199999999998</v>
@@ -2686,28 +2971,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1578.64</v>
+        <v>-11097.23601161914</v>
       </c>
       <c r="P32" t="n">
         <v>1600</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.4330644949752</v>
+        <v>320.807568501268</v>
       </c>
       <c r="R32" t="n">
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>41871.73418941916</v>
+        <v>43701.6373714475</v>
       </c>
       <c r="T32" t="n">
-        <v>233.3150066784402</v>
+        <v>231.4529210690744</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>26623.08930363152</v>
+        <v>26259.61019268333</v>
+      </c>
+      <c r="W32" t="n">
+        <v>34838.39264357268</v>
+      </c>
+      <c r="X32" t="n">
+        <v>27859.61019268333</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-6978.78245088935</v>
       </c>
     </row>
     <row r="33">
@@ -2735,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I33" t="n">
-        <v>21214.08461702804</v>
+        <v>21805.98250390154</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2762,13 +3056,13 @@
         <v>7300</v>
       </c>
       <c r="Q33" t="n">
-        <v>333.9999999999997</v>
+        <v>327.9999999999997</v>
       </c>
       <c r="R33" t="n">
         <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>46276.79999999994</v>
+        <v>45105.59999999993</v>
       </c>
       <c r="T33" t="n">
         <v>457.9999999999997</v>
@@ -2777,7 +3071,16 @@
         <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>75858.19999999992</v>
+        <v>75858.1999999999</v>
+      </c>
+      <c r="W33" t="n">
+        <v>74211.58250390147</v>
+      </c>
+      <c r="X33" t="n">
+        <v>83158.1999999999</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8946.617496098421</v>
       </c>
     </row>
     <row r="34">
@@ -2790,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>439.9999999999998</v>
+        <v>439.9999999999999</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -2805,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I34" t="n">
-        <v>21652.54818559139</v>
+        <v>20588.74119750534</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2832,22 +3135,31 @@
         <v>7300</v>
       </c>
       <c r="Q34" t="n">
-        <v>314.9999999999998</v>
+        <v>318.9999999999999</v>
       </c>
       <c r="R34" t="n">
         <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>42567.99999999996</v>
+        <v>43348.79999999997</v>
       </c>
       <c r="T34" t="n">
-        <v>439.9999999999998</v>
+        <v>439.9999999999999</v>
       </c>
       <c r="U34" t="n">
         <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>70675.99999999996</v>
+        <v>70675.99999999997</v>
+      </c>
+      <c r="W34" t="n">
+        <v>71237.54119750531</v>
+      </c>
+      <c r="X34" t="n">
+        <v>77975.99999999997</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6738.458802494657</v>
       </c>
     </row>
     <row r="35">
@@ -2860,19 +3172,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>42.17328267458547</v>
+        <v>42.1137920160772</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>390.3149382105191</v>
+        <v>393.3589235676205</v>
       </c>
       <c r="F35" t="n">
-        <v>-252</v>
+        <v>-366</v>
       </c>
       <c r="G35" t="n">
-        <v>348.1416555359336</v>
+        <v>351.2451315515434</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2881,34 +3193,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-214</v>
+        <v>-220</v>
       </c>
       <c r="K35" t="n">
-        <v>-37346.40216203702</v>
+        <v>-38290.9386795497</v>
       </c>
       <c r="L35" t="n">
-        <v>-214</v>
+        <v>173.3589235676205</v>
       </c>
       <c r="M35" t="n">
         <v>96.09199999999998</v>
       </c>
       <c r="N35" t="n">
-        <v>-33453.62796375893</v>
+        <v>-33751.8471810509</v>
       </c>
       <c r="O35" t="n">
-        <v>20524.13</v>
+        <v>-16544.35624436209</v>
       </c>
       <c r="P35" t="n">
         <v>910</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.17328267458547</v>
+        <v>42.1137920160772</v>
       </c>
       <c r="R35" t="n">
         <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>4242.632237063298</v>
+        <v>4236.647476817366</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -2918,6 +3230,15 @@
       </c>
       <c r="V35" t="n">
         <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-49688.64744709442</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-32841.8471810509</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>16846.80026604352</v>
       </c>
     </row>
     <row r="36">
@@ -2930,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>207.0000000000004</v>
+        <v>207.0000000000001</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -2945,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" t="n">
-        <v>1527.288019052305</v>
+        <v>1753.70503262853</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2972,22 +3293,31 @@
         <v>1600</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.0000000000004</v>
+        <v>198.0000000000001</v>
       </c>
       <c r="R36" t="n">
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>20019.40000000004</v>
+        <v>19918.80000000001</v>
       </c>
       <c r="T36" t="n">
-        <v>207.0000000000004</v>
+        <v>207.0000000000001</v>
       </c>
       <c r="U36" t="n">
         <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>21486.40000000008</v>
+        <v>21486.40000000002</v>
+      </c>
+      <c r="W36" t="n">
+        <v>23272.50503262853</v>
+      </c>
+      <c r="X36" t="n">
+        <v>23086.40000000002</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-186.1050326285185</v>
       </c>
     </row>
     <row r="37">
@@ -3015,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I37" t="n">
-        <v>18113.45266084728</v>
+        <v>19669.89801294383</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3042,13 +3372,13 @@
         <v>1600</v>
       </c>
       <c r="Q37" t="n">
-        <v>292.0000000000001</v>
+        <v>281.0000000000001</v>
       </c>
       <c r="R37" t="n">
         <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>38078.40000000002</v>
+        <v>35931.20000000002</v>
       </c>
       <c r="T37" t="n">
         <v>396.0000000000001</v>
@@ -3059,6 +3389,15 @@
       <c r="V37" t="n">
         <v>58379.20000000002</v>
       </c>
+      <c r="W37" t="n">
+        <v>57201.09801294385</v>
+      </c>
+      <c r="X37" t="n">
+        <v>59979.20000000002</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2778.101987056172</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3070,34 +3409,34 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>334.851223265353</v>
+        <v>333.8202022746669</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>114.5362165869127</v>
+        <v>115.3672812055933</v>
       </c>
       <c r="F38" t="n">
-        <v>-47</v>
+        <v>-84</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>3208.90102007302</v>
+        <v>3717.571917497231</v>
       </c>
       <c r="J38" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="K38" t="n">
-        <v>-3659.080698113584</v>
+        <v>-3344.150090452745</v>
       </c>
       <c r="L38" t="n">
-        <v>-21</v>
+        <v>95.36728120559332</v>
       </c>
       <c r="M38" t="n">
         <v>96.09199999999998</v>
@@ -3106,28 +3445,37 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1981.86</v>
+        <v>-11037.09362912652</v>
       </c>
       <c r="P38" t="n">
         <v>1600</v>
       </c>
       <c r="Q38" t="n">
-        <v>316.851223265353</v>
+        <v>313.8202022746669</v>
       </c>
       <c r="R38" t="n">
         <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>42929.35878139691</v>
+        <v>42337.70348401497</v>
       </c>
       <c r="T38" t="n">
-        <v>220.3150066784403</v>
+        <v>218.4529210690736</v>
       </c>
       <c r="U38" t="n">
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>24085.48930363154</v>
+        <v>23722.01019268316</v>
+      </c>
+      <c r="W38" t="n">
+        <v>33274.03168193294</v>
+      </c>
+      <c r="X38" t="n">
+        <v>25322.01019268316</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-7952.021489249779</v>
       </c>
     </row>
     <row r="39">
@@ -3140,55 +3488,55 @@
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>246.2545944240248</v>
+        <v>244.843144481364</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>290.3962499599583</v>
+        <v>292.0882760329073</v>
       </c>
       <c r="F39" t="n">
-        <v>-188</v>
+        <v>-268</v>
       </c>
       <c r="G39" t="n">
-        <v>44.1416555359335</v>
+        <v>47.24513155154332</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>554.0012474732873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-97</v>
+        <v>-108</v>
       </c>
       <c r="K39" t="n">
-        <v>-16600.01112653913</v>
+        <v>-18511.97996348779</v>
       </c>
       <c r="L39" t="n">
-        <v>-97</v>
+        <v>184.0882760329073</v>
       </c>
       <c r="M39" t="n">
         <v>96.09199999999998</v>
       </c>
       <c r="N39" t="n">
-        <v>-4241.659963758921</v>
+        <v>-4539.8791810509</v>
       </c>
       <c r="O39" t="n">
-        <v>9208.970000000001</v>
+        <v>-17561.60380401741</v>
       </c>
       <c r="P39" t="n">
         <v>1600</v>
       </c>
       <c r="Q39" t="n">
-        <v>243.2545944240248</v>
+        <v>244.843144481364</v>
       </c>
       <c r="R39" t="n">
         <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>28563.29683156963</v>
+        <v>28873.38180276225</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3198,6 +3546,15 @@
       </c>
       <c r="V39" t="n">
         <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-5600.201964742948</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-2939.8791810509</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2660.322783692048</v>
       </c>
     </row>
     <row r="40">
@@ -3210,7 +3567,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>255.9999999999996</v>
+        <v>256.0000000000002</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
@@ -3225,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I40" t="n">
-        <v>9775.787588648627</v>
+        <v>10591.46446473882</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3252,22 +3609,31 @@
         <v>1600</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.9999999999996</v>
+        <v>198.0000000000002</v>
       </c>
       <c r="R40" t="n">
         <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>20119.99999999996</v>
+        <v>19918.80000000002</v>
       </c>
       <c r="T40" t="n">
-        <v>255.9999999999996</v>
+        <v>256.0000000000002</v>
       </c>
       <c r="U40" t="n">
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>31051.19999999993</v>
+        <v>31051.20000000003</v>
+      </c>
+      <c r="W40" t="n">
+        <v>32110.26446473883</v>
+      </c>
+      <c r="X40" t="n">
+        <v>32651.20000000003</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>540.9355352612001</v>
       </c>
     </row>
     <row r="41">
@@ -3280,19 +3646,19 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>61.74790998159335</v>
+        <v>62.05368290553002</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>212.4329033031535</v>
+        <v>214.600761836456</v>
       </c>
       <c r="F41" t="n">
-        <v>-98</v>
+        <v>-190</v>
       </c>
       <c r="G41" t="n">
-        <v>150.6849933215601</v>
+        <v>152.547078930926</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3301,34 +3667,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-118</v>
+        <v>-108</v>
       </c>
       <c r="K41" t="n">
-        <v>-20552.69223107287</v>
+        <v>-18738.53153470206</v>
       </c>
       <c r="L41" t="n">
-        <v>-118</v>
+        <v>106.600761836456</v>
       </c>
       <c r="M41" t="n">
         <v>96.09199999999998</v>
       </c>
       <c r="N41" t="n">
-        <v>-14479.62237825536</v>
+        <v>-14658.55390863054</v>
       </c>
       <c r="O41" t="n">
-        <v>11216.67</v>
+        <v>-10160.37648274886</v>
       </c>
       <c r="P41" t="n">
         <v>910</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.74790998159335</v>
+        <v>62.05368290553002</v>
       </c>
       <c r="R41" t="n">
         <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>6211.839744148291</v>
+        <v>6242.60050029632</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3338,6 +3704,15 @@
       </c>
       <c r="V41" t="n">
         <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-21746.3075171546</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-13748.55390863054</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>7997.753608524057</v>
       </c>
     </row>
     <row r="42">
@@ -3350,34 +3725,34 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>238.1919160709376</v>
+        <v>241.1981511673211</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>141.470966703393</v>
+        <v>145.4593260278538</v>
       </c>
       <c r="F42" t="n">
-        <v>-55</v>
+        <v>-116</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>576.142281266751</v>
+        <v>355.832527423551</v>
       </c>
       <c r="J42" t="n">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="K42" t="n">
-        <v>-5363.579482472069</v>
+        <v>-5302.527617871817</v>
       </c>
       <c r="L42" t="n">
-        <v>-30</v>
+        <v>116.4593260278538</v>
       </c>
       <c r="M42" t="n">
         <v>75.65924731182795</v>
@@ -3386,28 +3761,37 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2198.82</v>
+        <v>-8839.508956065099</v>
       </c>
       <c r="P42" t="n">
         <v>1600</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.1919160709376</v>
+        <v>239.1981511673211</v>
       </c>
       <c r="R42" t="n">
         <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>26989.46201704702</v>
+        <v>27771.47910786107</v>
       </c>
       <c r="T42" t="n">
-        <v>96.72094936754465</v>
+        <v>95.73882513946731</v>
       </c>
       <c r="U42" t="n">
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>9730.127506374991</v>
+        <v>9631.325809030412</v>
+      </c>
+      <c r="W42" t="n">
+        <v>15585.27506134771</v>
+      </c>
+      <c r="X42" t="n">
+        <v>11231.32580903041</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-4353.949252317296</v>
       </c>
     </row>
     <row r="43">
@@ -3420,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>106</v>
+        <v>106.0000000000003</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -3462,22 +3846,31 @@
         <v>910</v>
       </c>
       <c r="Q43" t="n">
-        <v>106</v>
+        <v>106.0000000000003</v>
       </c>
       <c r="R43" t="n">
         <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>10663.6</v>
+        <v>10663.60000000003</v>
       </c>
       <c r="T43" t="n">
-        <v>106</v>
+        <v>106.0000000000003</v>
       </c>
       <c r="U43" t="n">
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>10663.6</v>
+        <v>10663.60000000003</v>
+      </c>
+      <c r="W43" t="n">
+        <v>11573.60000000003</v>
+      </c>
+      <c r="X43" t="n">
+        <v>11573.60000000003</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3490,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>405.9999999999993</v>
+        <v>405.9999999999999</v>
       </c>
       <c r="D44" t="n">
         <v>3</v>
@@ -3505,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I44" t="n">
-        <v>19825.9646307688</v>
+        <v>22666.6150700968</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3532,22 +3925,31 @@
         <v>7300</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.9999999999993</v>
+        <v>284.9999999999999</v>
       </c>
       <c r="R44" t="n">
         <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>39249.59999999986</v>
+        <v>36711.99999999999</v>
       </c>
       <c r="T44" t="n">
-        <v>405.9999999999993</v>
+        <v>405.9999999999999</v>
       </c>
       <c r="U44" t="n">
         <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>60887.39999999981</v>
+        <v>60887.39999999999</v>
+      </c>
+      <c r="W44" t="n">
+        <v>66678.61507009678</v>
+      </c>
+      <c r="X44" t="n">
+        <v>68187.39999999999</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1508.78492990321</v>
       </c>
     </row>
     <row r="45">
@@ -3560,19 +3962,19 @@
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>234.8403162586291</v>
+        <v>236.5676737455596</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>301.6387339793886</v>
+        <v>305.0029651797805</v>
       </c>
       <c r="F45" t="n">
-        <v>-197</v>
+        <v>-274</v>
       </c>
       <c r="G45" t="n">
-        <v>66.79841772075952</v>
+        <v>68.43529143422094</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3581,34 +3983,34 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-102</v>
+        <v>-107</v>
       </c>
       <c r="K45" t="n">
-        <v>-18368.03275921292</v>
+        <v>-19578.89240886541</v>
       </c>
       <c r="L45" t="n">
-        <v>-102</v>
+        <v>198.0029651797805</v>
       </c>
       <c r="M45" t="n">
         <v>75.65924731182795</v>
       </c>
       <c r="N45" t="n">
-        <v>-5053.918006373735</v>
+        <v>-5177.762639478744</v>
       </c>
       <c r="O45" t="n">
-        <v>7536.72</v>
+        <v>-14774.91456673601</v>
       </c>
       <c r="P45" t="n">
         <v>1600</v>
       </c>
       <c r="Q45" t="n">
-        <v>234.8403162586291</v>
+        <v>236.5676737455596</v>
       </c>
       <c r="R45" t="n">
         <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>26920.8297336844</v>
+        <v>27258.00991513323</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -3618,6 +4020,15 @@
       </c>
       <c r="V45" t="n">
         <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-5495.797060468187</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-3577.762639478744</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1918.034420989443</v>
       </c>
     </row>
     <row r="46">
@@ -3630,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>579.0000000000009</v>
+        <v>578.9999999999998</v>
       </c>
       <c r="D46" t="n">
         <v>3</v>
@@ -3648,7 +4059,7 @@
         <v>128</v>
       </c>
       <c r="I46" t="n">
-        <v>22848.96633194551</v>
+        <v>22870.07114715462</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3672,22 +4083,31 @@
         <v>7300</v>
       </c>
       <c r="Q46" t="n">
-        <v>451.0000000000009</v>
+        <v>450.9999999999998</v>
       </c>
       <c r="R46" t="n">
         <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>73842.90000000026</v>
+        <v>73842.89999999994</v>
       </c>
       <c r="T46" t="n">
-        <v>579.0000000000009</v>
+        <v>578.9999999999998</v>
       </c>
       <c r="U46" t="n">
         <v>3</v>
       </c>
       <c r="V46" t="n">
-        <v>110694.1000000003</v>
+        <v>110694.0999999999</v>
+      </c>
+      <c r="W46" t="n">
+        <v>104012.9711471546</v>
+      </c>
+      <c r="X46" t="n">
+        <v>117994.0999999999</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>13981.12885284537</v>
       </c>
     </row>
     <row r="47">
@@ -3715,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I47" t="n">
-        <v>20778.57142363892</v>
+        <v>21724.58894018837</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3742,13 +4162,13 @@
         <v>7300</v>
       </c>
       <c r="Q47" t="n">
-        <v>377.9999999999999</v>
+        <v>372.9999999999999</v>
       </c>
       <c r="R47" t="n">
         <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>54865.59999999998</v>
+        <v>53889.59999999998</v>
       </c>
       <c r="T47" t="n">
         <v>492.9999999999999</v>
@@ -3757,7 +4177,16 @@
         <v>3</v>
       </c>
       <c r="V47" t="n">
-        <v>85934.69999999998</v>
+        <v>85934.69999999997</v>
+      </c>
+      <c r="W47" t="n">
+        <v>82914.18894018834</v>
+      </c>
+      <c r="X47" t="n">
+        <v>93234.69999999997</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10320.51105981163</v>
       </c>
     </row>
     <row r="48">
@@ -3770,19 +4199,19 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>46.55089476230943</v>
+        <v>46.31793538006803</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>227.8299453947646</v>
+        <v>228.5791102406007</v>
       </c>
       <c r="F48" t="n">
-        <v>-105</v>
+        <v>-198</v>
       </c>
       <c r="G48" t="n">
-        <v>181.2790506324552</v>
+        <v>182.2611748605326</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3791,34 +4220,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-120</v>
+        <v>-126</v>
       </c>
       <c r="K48" t="n">
-        <v>-21718.11222266232</v>
+        <v>-22865.25554580516</v>
       </c>
       <c r="L48" t="n">
-        <v>-120</v>
+        <v>102.5791102406007</v>
       </c>
       <c r="M48" t="n">
         <v>75.65924731182795</v>
       </c>
       <c r="N48" t="n">
-        <v>-13715.43652425431</v>
+        <v>-13789.74330411736</v>
       </c>
       <c r="O48" t="n">
-        <v>8989.379999999997</v>
+        <v>-7622.422807688453</v>
       </c>
       <c r="P48" t="n">
         <v>910</v>
       </c>
       <c r="Q48" t="n">
-        <v>46.55089476230943</v>
+        <v>46.31793538006803</v>
       </c>
       <c r="R48" t="n">
         <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>4683.020013088328</v>
+        <v>4659.584299234843</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -3828,6 +4257,15 @@
       </c>
       <c r="V48" t="n">
         <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-24918.09405425877</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-12879.74330411736</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>12038.35075014141</v>
       </c>
     </row>
     <row r="49">
@@ -3840,34 +4278,34 @@
         <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>329.1632540894733</v>
+        <v>334.7703982763705</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>256.9616718102322</v>
+        <v>264.2056897105915</v>
       </c>
       <c r="F49" t="n">
-        <v>-159</v>
+        <v>-228</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>366.0443400043334</v>
+        <v>172.4909026556566</v>
       </c>
       <c r="J49" t="n">
-        <v>-67</v>
+        <v>-77</v>
       </c>
       <c r="K49" t="n">
-        <v>-11929.26195438665</v>
+        <v>-13801.85502364284</v>
       </c>
       <c r="L49" t="n">
-        <v>-67</v>
+        <v>187.2056897105915</v>
       </c>
       <c r="M49" t="n">
         <v>75.65924731182795</v>
@@ -3876,28 +4314,37 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>4967.41</v>
+        <v>-13997.87328358823</v>
       </c>
       <c r="P49" t="n">
         <v>1600</v>
       </c>
       <c r="Q49" t="n">
-        <v>327.1632540894733</v>
+        <v>333.7703982763705</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>44942.26719826519</v>
+        <v>46231.98174354751</v>
       </c>
       <c r="T49" t="n">
-        <v>72.20158227924111</v>
+        <v>70.56470856577897</v>
       </c>
       <c r="U49" t="n">
         <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>7263.479177291655</v>
+        <v>7098.809681717365</v>
+      </c>
+      <c r="W49" t="n">
+        <v>20204.7443389721</v>
+      </c>
+      <c r="X49" t="n">
+        <v>8698.809681717365</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-11505.93465725474</v>
       </c>
     </row>
     <row r="50">
@@ -3969,6 +4416,15 @@
       <c r="V50" t="n">
         <v>15492.40000000001</v>
       </c>
+      <c r="W50" t="n">
+        <v>16402.40000000001</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16402.40000000001</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3980,16 +4436,16 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>211.2508640947026</v>
+        <v>211.278015384966</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>152.5299147271579</v>
+        <v>153.5391902454992</v>
       </c>
       <c r="F51" t="n">
-        <v>-66</v>
+        <v>-122</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3998,16 +4454,16 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>187.8692835948427</v>
+        <v>165.173733509034</v>
       </c>
       <c r="J51" t="n">
-        <v>-38</v>
+        <v>-34</v>
       </c>
       <c r="K51" t="n">
-        <v>-6806.744528711513</v>
+        <v>-6094.145063222631</v>
       </c>
       <c r="L51" t="n">
-        <v>-38</v>
+        <v>119.5391902454992</v>
       </c>
       <c r="M51" t="n">
         <v>75.65924731182795</v>
@@ -4016,28 +4472,37 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2756.54</v>
+        <v>-8926.360883311669</v>
       </c>
       <c r="P51" t="n">
         <v>1600</v>
       </c>
       <c r="Q51" t="n">
-        <v>210.2508640947026</v>
+        <v>210.278015384966</v>
       </c>
       <c r="R51" t="n">
         <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>22120.96867128596</v>
+        <v>22126.26860314537</v>
       </c>
       <c r="T51" t="n">
-        <v>58.7209493675447</v>
+        <v>57.73882513946683</v>
       </c>
       <c r="U51" t="n">
         <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>5907.327506374997</v>
+        <v>5808.525809030362</v>
+      </c>
+      <c r="W51" t="n">
+        <v>8870.936390120101</v>
+      </c>
+      <c r="X51" t="n">
+        <v>7408.525809030362</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-1462.410581089739</v>
       </c>
     </row>
     <row r="52">
@@ -4050,16 +4515,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>259.0883326128094</v>
+        <v>261.0061720707922</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>129.7733259343696</v>
+        <v>133.5532510017185</v>
       </c>
       <c r="F52" t="n">
-        <v>-51</v>
+        <v>-105</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -4068,16 +4533,16 @@
         <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>1411.843997515224</v>
+        <v>1508.292739065356</v>
       </c>
       <c r="J52" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="K52" t="n">
-        <v>-4342.277937550153</v>
+        <v>-3685.563634446981</v>
       </c>
       <c r="L52" t="n">
-        <v>-25</v>
+        <v>112.5532510017185</v>
       </c>
       <c r="M52" t="n">
         <v>71.42611111111111</v>
@@ -4086,28 +4551,37 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1751.75</v>
+        <v>-8444.346440781355</v>
       </c>
       <c r="P52" t="n">
         <v>1600</v>
       </c>
       <c r="Q52" t="n">
-        <v>251.0883326128094</v>
+        <v>253.0061720707922</v>
       </c>
       <c r="R52" t="n">
         <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>30092.44252602039</v>
+        <v>30466.80478821864</v>
       </c>
       <c r="T52" t="n">
-        <v>129.3150066784398</v>
+        <v>127.4529210690737</v>
       </c>
       <c r="U52" t="n">
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>13009.08967185105</v>
+        <v>12821.76385954882</v>
+      </c>
+      <c r="W52" t="n">
+        <v>21445.18745205566</v>
+      </c>
+      <c r="X52" t="n">
+        <v>14421.76385954882</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-7023.423592506842</v>
       </c>
     </row>
     <row r="53">
@@ -4120,7 +4594,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>395</v>
+        <v>394.9999999999999</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -4135,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I53" t="n">
-        <v>24465.36946197803</v>
+        <v>21807.43060802247</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4162,22 +4636,31 @@
         <v>1600</v>
       </c>
       <c r="Q53" t="n">
-        <v>261</v>
+        <v>273.9999999999999</v>
       </c>
       <c r="R53" t="n">
         <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>32027.2</v>
+        <v>34564.79999999997</v>
       </c>
       <c r="T53" t="n">
-        <v>395</v>
+        <v>394.9999999999999</v>
       </c>
       <c r="U53" t="n">
         <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>58184</v>
+        <v>58183.99999999998</v>
+      </c>
+      <c r="W53" t="n">
+        <v>57972.23060802244</v>
+      </c>
+      <c r="X53" t="n">
+        <v>59783.99999999998</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1811.769391977534</v>
       </c>
     </row>
     <row r="54">
@@ -4190,7 +4673,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>315.9999999999998</v>
+        <v>315.9999999999999</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
@@ -4205,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I54" t="n">
-        <v>16439.74795595208</v>
+        <v>18432.49717681789</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -4232,22 +4715,31 @@
         <v>1600</v>
       </c>
       <c r="Q54" t="n">
-        <v>226.9999999999998</v>
+        <v>214.9999999999999</v>
       </c>
       <c r="R54" t="n">
         <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>25390.39999999997</v>
+        <v>23047.99999999998</v>
       </c>
       <c r="T54" t="n">
-        <v>315.9999999999998</v>
+        <v>315.9999999999999</v>
       </c>
       <c r="U54" t="n">
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>42763.19999999997</v>
+        <v>42763.19999999998</v>
+      </c>
+      <c r="W54" t="n">
+        <v>43080.49717681787</v>
+      </c>
+      <c r="X54" t="n">
+        <v>44363.19999999998</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1282.70282318211</v>
       </c>
     </row>
     <row r="55">
@@ -4260,19 +4752,19 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>99.9112069149166</v>
+        <v>101.8697120035384</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>350.0528624508497</v>
+        <v>355.1148435550818</v>
       </c>
       <c r="F55" t="n">
-        <v>-227</v>
+        <v>-328</v>
       </c>
       <c r="G55" t="n">
-        <v>250.1416555359331</v>
+        <v>253.2451315515434</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4281,34 +4773,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-177</v>
+        <v>-191</v>
       </c>
       <c r="K55" t="n">
-        <v>-31049.98583129882</v>
+        <v>-33909.12367731831</v>
       </c>
       <c r="L55" t="n">
-        <v>-177</v>
+        <v>164.1148435550818</v>
       </c>
       <c r="M55" t="n">
         <v>71.42611111111111</v>
       </c>
       <c r="N55" t="n">
-        <v>-17866.64568182684</v>
+        <v>-18088.31490454849</v>
       </c>
       <c r="O55" t="n">
-        <v>12231.24</v>
+        <v>-11435.42582640976</v>
       </c>
       <c r="P55" t="n">
         <v>910</v>
       </c>
       <c r="Q55" t="n">
-        <v>99.9112069149166</v>
+        <v>101.8697120035384</v>
       </c>
       <c r="R55" t="n">
         <v>1</v>
       </c>
       <c r="S55" t="n">
-        <v>10051.06741564061</v>
+        <v>10248.09302755596</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -4318,6 +4810,15 @@
       </c>
       <c r="V55" t="n">
         <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-34186.45647617211</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-17178.31490454849</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>17008.14157162362</v>
       </c>
     </row>
     <row r="56">
@@ -4389,6 +4890,15 @@
       <c r="V56" t="n">
         <v>8651.599999999995</v>
       </c>
+      <c r="W56" t="n">
+        <v>9561.599999999995</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9561.599999999995</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4400,7 +4910,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>145.0000000000001</v>
+        <v>145</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -4442,22 +4952,31 @@
         <v>910</v>
       </c>
       <c r="Q57" t="n">
-        <v>145.0000000000001</v>
+        <v>145</v>
       </c>
       <c r="R57" t="n">
         <v>1</v>
       </c>
       <c r="S57" t="n">
-        <v>14587.00000000001</v>
+        <v>14587</v>
       </c>
       <c r="T57" t="n">
-        <v>145.0000000000001</v>
+        <v>145</v>
       </c>
       <c r="U57" t="n">
         <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>14587.00000000001</v>
+        <v>14587</v>
+      </c>
+      <c r="W57" t="n">
+        <v>15497</v>
+      </c>
+      <c r="X57" t="n">
+        <v>15497</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4470,34 +4989,34 @@
         <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>348.3366909584251</v>
+        <v>348.5611253883845</v>
       </c>
       <c r="D58" t="n">
         <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>103.0216842799855</v>
+        <v>105.1082043193103</v>
       </c>
       <c r="F58" t="n">
-        <v>-39</v>
+        <v>-77</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I58" t="n">
-        <v>2044.052973031553</v>
+        <v>4002.71582849742</v>
       </c>
       <c r="J58" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="K58" t="n">
-        <v>-1482.749648405663</v>
+        <v>-1342.942606538266</v>
       </c>
       <c r="L58" t="n">
-        <v>-8.992732736671165</v>
+        <v>97.10820431931026</v>
       </c>
       <c r="M58" t="n">
         <v>71.42611111111111</v>
@@ -4506,28 +5025,37 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>650.2815834858122</v>
+        <v>-8436.218374242173</v>
       </c>
       <c r="P58" t="n">
         <v>1600</v>
       </c>
       <c r="Q58" t="n">
-        <v>337.3366909584251</v>
+        <v>326.5611253883845</v>
       </c>
       <c r="R58" t="n">
         <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>46928.12207508458</v>
+        <v>44824.73167581265</v>
       </c>
       <c r="T58" t="n">
-        <v>245.3150066784395</v>
+        <v>243.4529210690742</v>
       </c>
       <c r="U58" t="n">
         <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>28965.4893036314</v>
+        <v>28602.01019268329</v>
+      </c>
+      <c r="W58" t="n">
+        <v>40648.28652352963</v>
+      </c>
+      <c r="X58" t="n">
+        <v>30202.01019268329</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-10446.27633084635</v>
       </c>
     </row>
     <row r="59">
@@ -4540,55 +5068,55 @@
         <v>6</v>
       </c>
       <c r="C59" t="n">
-        <v>250.2211943442399</v>
+        <v>251.852583177257</v>
       </c>
       <c r="D59" t="n">
         <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>280.3628498801733</v>
+        <v>285.0977147287998</v>
       </c>
       <c r="F59" t="n">
-        <v>-182</v>
+        <v>-255</v>
       </c>
       <c r="G59" t="n">
-        <v>30.14165553593341</v>
+        <v>33.24513155154273</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>183.2677289025642</v>
+        <v>195.2</v>
       </c>
       <c r="J59" t="n">
-        <v>-89</v>
+        <v>-77</v>
       </c>
       <c r="K59" t="n">
-        <v>-15495.88217529183</v>
+        <v>-13286.72181936094</v>
       </c>
       <c r="L59" t="n">
-        <v>-89</v>
+        <v>208.0977147287998</v>
       </c>
       <c r="M59" t="n">
         <v>71.42611111111111</v>
       </c>
       <c r="N59" t="n">
-        <v>-2152.901237382417</v>
+        <v>-2374.570460103997</v>
       </c>
       <c r="O59" t="n">
-        <v>6136.289999999999</v>
+        <v>-14659.87273610613</v>
       </c>
       <c r="P59" t="n">
         <v>1600</v>
       </c>
       <c r="Q59" t="n">
-        <v>249.2211943442399</v>
+        <v>250.852583177257</v>
       </c>
       <c r="R59" t="n">
         <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>29727.97713599563</v>
+        <v>30046.42423620057</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -4598,6 +5126,15 @@
       </c>
       <c r="V59" t="n">
         <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>3895.029680733503</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-774.5704601039965</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-4669.6001408375</v>
       </c>
     </row>
     <row r="60">
@@ -4610,7 +5147,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>599.0000000000005</v>
+        <v>599</v>
       </c>
       <c r="D60" t="n">
         <v>3</v>
@@ -4625,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I60" t="n">
-        <v>24775.88275176326</v>
+        <v>26791.30430911645</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -4652,22 +5189,31 @@
         <v>7300</v>
       </c>
       <c r="Q60" t="n">
-        <v>451.0000000000005</v>
+        <v>440</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>73842.90000000013</v>
+        <v>70676</v>
       </c>
       <c r="T60" t="n">
-        <v>599.0000000000005</v>
+        <v>599</v>
       </c>
       <c r="U60" t="n">
         <v>3</v>
       </c>
       <c r="V60" t="n">
-        <v>116452.1000000001</v>
+        <v>116452.1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>104767.3043091165</v>
+      </c>
+      <c r="X60" t="n">
+        <v>123752.1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>18984.79569088355</v>
       </c>
     </row>
     <row r="61">
@@ -4680,19 +5226,19 @@
         <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>53.26254200291697</v>
+        <v>52.87101181053431</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>215.9475353244771</v>
+        <v>217.4180907414603</v>
       </c>
       <c r="F61" t="n">
-        <v>-101</v>
+        <v>-187</v>
       </c>
       <c r="G61" t="n">
-        <v>162.6849933215602</v>
+        <v>164.547078930926</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4701,34 +5247,34 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-91</v>
+        <v>-115</v>
       </c>
       <c r="K61" t="n">
-        <v>-16247.82235654086</v>
+        <v>-20123.74460852425</v>
       </c>
       <c r="L61" t="n">
-        <v>-91</v>
+        <v>102.4180907414603</v>
       </c>
       <c r="M61" t="n">
         <v>71.42611111111111</v>
       </c>
       <c r="N61" t="n">
-        <v>-11619.95640909613</v>
+        <v>-11752.95794272909</v>
       </c>
       <c r="O61" t="n">
-        <v>6279.8</v>
+        <v>-7183.269593076878</v>
       </c>
       <c r="P61" t="n">
         <v>910</v>
       </c>
       <c r="Q61" t="n">
-        <v>53.26254200291697</v>
+        <v>52.87101181053431</v>
       </c>
       <c r="R61" t="n">
         <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>5358.211725493446</v>
+        <v>5318.823788139751</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -4738,6 +5284,15 @@
       </c>
       <c r="V61" t="n">
         <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-21078.19041346138</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-10842.95794272909</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>10235.23247073228</v>
       </c>
     </row>
     <row r="62">
@@ -4750,34 +5305,34 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>380.4292955256785</v>
+        <v>379.4032398558168</v>
       </c>
       <c r="D62" t="n">
         <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>95.70834615813374</v>
+        <v>95.6644147163494</v>
       </c>
       <c r="F62" t="n">
-        <v>-32</v>
+        <v>-66</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I62" t="n">
-        <v>1145.167585232462</v>
+        <v>3786.020586030858</v>
       </c>
       <c r="J62" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="K62" t="n">
-        <v>-463.1353692959067</v>
+        <v>-963.9472380369878</v>
       </c>
       <c r="L62" t="n">
-        <v>-3</v>
+        <v>89.6644147163494</v>
       </c>
       <c r="M62" t="n">
         <v>71.3616129032258</v>
@@ -4786,28 +5341,37 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>204.21</v>
+        <v>-7805.489719459902</v>
       </c>
       <c r="P62" t="n">
         <v>1600</v>
       </c>
       <c r="Q62" t="n">
-        <v>373.4292955256785</v>
+        <v>357.4032398558168</v>
       </c>
       <c r="R62" t="n">
         <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>44513.39848661245</v>
+        <v>41385.11241985543</v>
       </c>
       <c r="T62" t="n">
-        <v>284.7209493675448</v>
+        <v>283.7388251394674</v>
       </c>
       <c r="U62" t="n">
         <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>28642.927506375</v>
+        <v>28544.12580903042</v>
+      </c>
+      <c r="W62" t="n">
+        <v>38001.6960483894</v>
+      </c>
+      <c r="X62" t="n">
+        <v>30144.12580903042</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-7857.570239358982</v>
       </c>
     </row>
     <row r="63">
@@ -4820,7 +5384,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>526.0000000000008</v>
+        <v>525.9999999999999</v>
       </c>
       <c r="D63" t="n">
         <v>3</v>
@@ -4835,10 +5399,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="I63" t="n">
-        <v>15330.7999287209</v>
+        <v>19600.57561177757</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -4862,22 +5426,31 @@
         <v>7300</v>
       </c>
       <c r="Q63" t="n">
-        <v>428.0000000000008</v>
+        <v>395.9999999999999</v>
       </c>
       <c r="R63" t="n">
         <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>55165.60000000015</v>
+        <v>48919.19999999998</v>
       </c>
       <c r="T63" t="n">
-        <v>526.0000000000008</v>
+        <v>525.9999999999999</v>
       </c>
       <c r="U63" t="n">
         <v>3</v>
       </c>
       <c r="V63" t="n">
-        <v>81340.40000000023</v>
+        <v>81340.39999999997</v>
+      </c>
+      <c r="W63" t="n">
+        <v>75819.77561177754</v>
+      </c>
+      <c r="X63" t="n">
+        <v>88640.39999999997</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>12820.62438822242</v>
       </c>
     </row>
     <row r="64">
@@ -4890,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>310.9999999999996</v>
+        <v>311.0000000000001</v>
       </c>
       <c r="D64" t="n">
         <v>2</v>
@@ -4905,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>1965.347711323956</v>
+        <v>2235.987520959759</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -4932,22 +5505,31 @@
         <v>1600</v>
       </c>
       <c r="Q64" t="n">
-        <v>298.9999999999996</v>
+        <v>298.0000000000001</v>
       </c>
       <c r="R64" t="n">
         <v>1</v>
       </c>
       <c r="S64" t="n">
-        <v>30079.39999999996</v>
+        <v>29978.80000000001</v>
       </c>
       <c r="T64" t="n">
-        <v>310.9999999999996</v>
+        <v>311.0000000000001</v>
       </c>
       <c r="U64" t="n">
         <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>32327.19999999992</v>
+        <v>32327.20000000002</v>
+      </c>
+      <c r="W64" t="n">
+        <v>33814.78752095977</v>
+      </c>
+      <c r="X64" t="n">
+        <v>33927.20000000003</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>112.4124790402566</v>
       </c>
     </row>
     <row r="65">
@@ -4960,19 +5542,19 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>154.0482668763356</v>
+        <v>152.9524823587226</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>329.8466845970945</v>
+        <v>330.3877737929436</v>
       </c>
       <c r="F65" t="n">
-        <v>-215</v>
+        <v>-299</v>
       </c>
       <c r="G65" t="n">
-        <v>175.7984177207589</v>
+        <v>177.4352914342209</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4981,34 +5563,34 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-87</v>
+        <v>-122</v>
       </c>
       <c r="K65" t="n">
-        <v>-13889.92474661884</v>
+        <v>-19254.81951700869</v>
       </c>
       <c r="L65" t="n">
-        <v>-87</v>
+        <v>208.3877737929436</v>
       </c>
       <c r="M65" t="n">
         <v>71.3616129032258</v>
       </c>
       <c r="N65" t="n">
-        <v>-12545.25863438839</v>
+        <v>-12662.06858269993</v>
       </c>
       <c r="O65" t="n">
-        <v>6102.160000000002</v>
+        <v>-14446.82592017</v>
       </c>
       <c r="P65" t="n">
         <v>910</v>
       </c>
       <c r="Q65" t="n">
-        <v>154.0482668763356</v>
+        <v>152.9524823587226</v>
       </c>
       <c r="R65" t="n">
         <v>1</v>
       </c>
       <c r="S65" t="n">
-        <v>15497.25564775936</v>
+        <v>15387.0197252875</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -5018,6 +5600,15 @@
       </c>
       <c r="V65" t="n">
         <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-17404.62571189119</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-11752.06858269993</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>5652.557129191262</v>
       </c>
     </row>
     <row r="66">
@@ -5089,6 +5680,15 @@
       <c r="V66" t="n">
         <v>23137.99999999999</v>
       </c>
+      <c r="W66" t="n">
+        <v>24047.99999999999</v>
+      </c>
+      <c r="X66" t="n">
+        <v>24047.99999999999</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5159,6 +5759,15 @@
       <c r="V67" t="n">
         <v>15593</v>
       </c>
+      <c r="W67" t="n">
+        <v>16503</v>
+      </c>
+      <c r="X67" t="n">
+        <v>16503</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5170,16 +5779,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>265.0351515535772</v>
+        <v>270.4183043107924</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>125.3142021860322</v>
+        <v>131.6794791713249</v>
       </c>
       <c r="F68" t="n">
-        <v>-49</v>
+        <v>-100</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -5191,13 +5800,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="K68" t="n">
-        <v>-2912.239296355122</v>
+        <v>-2576.867459743934</v>
       </c>
       <c r="L68" t="n">
-        <v>-19</v>
+        <v>115.6794791713249</v>
       </c>
       <c r="M68" t="n">
         <v>71.3616129032258</v>
@@ -5206,28 +5815,37 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1315.24</v>
+        <v>-8057.588008209819</v>
       </c>
       <c r="P68" t="n">
         <v>910</v>
       </c>
       <c r="Q68" t="n">
-        <v>265.0351515535772</v>
+        <v>270.4183043107924</v>
       </c>
       <c r="R68" t="n">
         <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>26662.53624628986</v>
+        <v>27204.08141366571</v>
       </c>
       <c r="T68" t="n">
-        <v>139.720949367545</v>
+        <v>138.7388251394675</v>
       </c>
       <c r="U68" t="n">
         <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>14055.92750637502</v>
+        <v>13957.12580903043</v>
+      </c>
+      <c r="W68" t="n">
+        <v>17479.62594571196</v>
+      </c>
+      <c r="X68" t="n">
+        <v>14867.12580903043</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>-2612.500136681532</v>
       </c>
     </row>
     <row r="69">
@@ -5240,16 +5858,16 @@
         <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>382.3270358560102</v>
+        <v>391.0111087979136</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>228.1254535767689</v>
+        <v>238.4464002321342</v>
       </c>
       <c r="F69" t="n">
-        <v>-140</v>
+        <v>-207</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5258,16 +5876,16 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>653.9317770606513</v>
+        <v>691.0033469053062</v>
       </c>
       <c r="J69" t="n">
-        <v>-22</v>
+        <v>-37</v>
       </c>
       <c r="K69" t="n">
-        <v>-3421.109895230725</v>
+        <v>-5587.480363713061</v>
       </c>
       <c r="L69" t="n">
-        <v>-22</v>
+        <v>201.4464002321342</v>
       </c>
       <c r="M69" t="n">
         <v>71.3616129032258</v>
@@ -5276,28 +5894,37 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1496.97</v>
+        <v>-14351.81276163514</v>
       </c>
       <c r="P69" t="n">
         <v>1600</v>
       </c>
       <c r="Q69" t="n">
-        <v>378.3270358560102</v>
+        <v>387.0111087979136</v>
       </c>
       <c r="R69" t="n">
         <v>2</v>
       </c>
       <c r="S69" t="n">
-        <v>45469.4373990932</v>
+        <v>47164.56843735273</v>
       </c>
       <c r="T69" t="n">
-        <v>154.2015822792414</v>
+        <v>152.5647085657795</v>
       </c>
       <c r="U69" t="n">
         <v>1</v>
       </c>
       <c r="V69" t="n">
-        <v>15512.67917729168</v>
+        <v>15348.00968171741</v>
+      </c>
+      <c r="W69" t="n">
+        <v>29516.27865890984</v>
+      </c>
+      <c r="X69" t="n">
+        <v>16948.00968171741</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-12568.26897719243</v>
       </c>
     </row>
     <row r="70">
@@ -5328,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="I70" t="n">
-        <v>1618.793761571143</v>
+        <v>1683.536441436661</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -5367,7 +5994,16 @@
         <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>31936.79999999996</v>
+        <v>31936.79999999997</v>
+      </c>
+      <c r="W70" t="n">
+        <v>33362.93644143664</v>
+      </c>
+      <c r="X70" t="n">
+        <v>33536.79999999997</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>173.8635585633237</v>
       </c>
     </row>
     <row r="71">
@@ -5380,34 +6016,34 @@
         <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>332.9237386410423</v>
+        <v>332.4353874546414</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>107.2027892734975</v>
+        <v>107.6965623151743</v>
       </c>
       <c r="F71" t="n">
-        <v>-39</v>
+        <v>-75</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I71" t="n">
-        <v>1101.290393485815</v>
+        <v>2092.286033661799</v>
       </c>
       <c r="J71" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="K71" t="n">
-        <v>-1002.069455652785</v>
+        <v>-1482.988972508232</v>
       </c>
       <c r="L71" t="n">
-        <v>-6</v>
+        <v>97.6965623151743</v>
       </c>
       <c r="M71" t="n">
         <v>71.3616129032258</v>
@@ -5416,28 +6052,37 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>398.67</v>
+        <v>-7633.410736208926</v>
       </c>
       <c r="P71" t="n">
         <v>1600</v>
       </c>
       <c r="Q71" t="n">
-        <v>326.9237386410423</v>
+        <v>320.4353874546414</v>
       </c>
       <c r="R71" t="n">
         <v>2</v>
       </c>
       <c r="S71" t="n">
-        <v>35435.51378273147</v>
+        <v>34168.98763114601</v>
       </c>
       <c r="T71" t="n">
-        <v>225.7209493675448</v>
+        <v>224.7388251394671</v>
       </c>
       <c r="U71" t="n">
         <v>1</v>
       </c>
       <c r="V71" t="n">
-        <v>22707.52750637501</v>
+        <v>22608.72580903039</v>
+      </c>
+      <c r="W71" t="n">
+        <v>28744.87395609065</v>
+      </c>
+      <c r="X71" t="n">
+        <v>24208.72580903039</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>-4536.148147060259</v>
       </c>
     </row>
     <row r="72">
@@ -5450,34 +6095,34 @@
         <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>387.0252458910896</v>
+        <v>385.0276023269342</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>97.30429652354545</v>
+        <v>96.28877718746698</v>
       </c>
       <c r="F72" t="n">
-        <v>-36</v>
+        <v>-64</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I72" t="n">
-        <v>4073.801385056004</v>
+        <v>4572.737289139453</v>
       </c>
       <c r="J72" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="K72" t="n">
-        <v>-2750.933373382929</v>
+        <v>-2308.762003673002</v>
       </c>
       <c r="L72" t="n">
-        <v>-15</v>
+        <v>84.28877718746698</v>
       </c>
       <c r="M72" t="n">
         <v>76.33483870967743</v>
@@ -5486,28 +6131,37 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1113.41</v>
+        <v>-8233.689241855391</v>
       </c>
       <c r="P72" t="n">
         <v>1600</v>
       </c>
       <c r="Q72" t="n">
-        <v>364.0252458910896</v>
+        <v>359.0276023269342</v>
       </c>
       <c r="R72" t="n">
         <v>2</v>
       </c>
       <c r="S72" t="n">
-        <v>42677.7279979407</v>
+        <v>41702.18797421757</v>
       </c>
       <c r="T72" t="n">
-        <v>289.7209493675442</v>
+        <v>288.7388251394673</v>
       </c>
       <c r="U72" t="n">
         <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>29145.92750637495</v>
+        <v>29047.12580903041</v>
+      </c>
+      <c r="W72" t="n">
+        <v>37332.47401782863</v>
+      </c>
+      <c r="X72" t="n">
+        <v>30647.12580903041</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-6685.348208798223</v>
       </c>
     </row>
     <row r="73">
@@ -5520,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>126.0000000000002</v>
+        <v>126.0000000000004</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -5562,22 +6216,31 @@
         <v>910</v>
       </c>
       <c r="Q73" t="n">
-        <v>126.0000000000002</v>
+        <v>126.0000000000004</v>
       </c>
       <c r="R73" t="n">
         <v>1</v>
       </c>
       <c r="S73" t="n">
-        <v>12675.60000000002</v>
+        <v>12675.60000000004</v>
       </c>
       <c r="T73" t="n">
-        <v>126.0000000000002</v>
+        <v>126.0000000000004</v>
       </c>
       <c r="U73" t="n">
         <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>12675.60000000002</v>
+        <v>12675.60000000004</v>
+      </c>
+      <c r="W73" t="n">
+        <v>13585.60000000004</v>
+      </c>
+      <c r="X73" t="n">
+        <v>13585.60000000004</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5590,7 +6253,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>423.9999999999997</v>
+        <v>424.0000000000003</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
@@ -5605,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I74" t="n">
-        <v>20527.71991873275</v>
+        <v>21818.84488784831</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -5632,22 +6295,31 @@
         <v>1600</v>
       </c>
       <c r="Q74" t="n">
-        <v>309.9999999999997</v>
+        <v>303.0000000000003</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
       </c>
       <c r="S74" t="n">
-        <v>32131.99999999993</v>
+        <v>30765.60000000006</v>
       </c>
       <c r="T74" t="n">
-        <v>423.9999999999997</v>
+        <v>424.0000000000003</v>
       </c>
       <c r="U74" t="n">
         <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>54384.79999999993</v>
+        <v>54384.80000000005</v>
+      </c>
+      <c r="W74" t="n">
+        <v>54184.44488784837</v>
+      </c>
+      <c r="X74" t="n">
+        <v>55984.80000000005</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1800.355112151687</v>
       </c>
     </row>
     <row r="75">
@@ -5660,19 +6332,19 @@
         <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>66.13814853807668</v>
+        <v>64.79977867114708</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>383.9365662588353</v>
+        <v>384.235070105368</v>
       </c>
       <c r="F75" t="n">
-        <v>-246</v>
+        <v>-353</v>
       </c>
       <c r="G75" t="n">
-        <v>317.7984177207586</v>
+        <v>319.435291434221</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5681,34 +6353,34 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-248</v>
+        <v>-250</v>
       </c>
       <c r="K75" t="n">
-        <v>-46186.3826863171</v>
+        <v>-46263.67379895919</v>
       </c>
       <c r="L75" t="n">
-        <v>-248</v>
+        <v>134.235070105368</v>
       </c>
       <c r="M75" t="n">
         <v>76.33483870967743</v>
       </c>
       <c r="N75" t="n">
-        <v>-24259.0909589048</v>
+        <v>-24384.04144981006</v>
       </c>
       <c r="O75" t="n">
-        <v>18358.65000000001</v>
+        <v>-10023.16872230597</v>
       </c>
       <c r="P75" t="n">
         <v>910</v>
       </c>
       <c r="Q75" t="n">
-        <v>66.13814853807668</v>
+        <v>64.79977867114708</v>
       </c>
       <c r="R75" t="n">
         <v>1</v>
       </c>
       <c r="S75" t="n">
-        <v>6653.497742930514</v>
+        <v>6518.857734317396</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -5718,6 +6390,15 @@
       </c>
       <c r="V75" t="n">
         <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-48857.98478694777</v>
+      </c>
+      <c r="X75" t="n">
+        <v>-23474.04144981006</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>25383.94333713771</v>
       </c>
     </row>
     <row r="76">
@@ -5730,7 +6411,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>573.9999999999995</v>
+        <v>574.0000000000008</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
@@ -5745,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="I76" t="n">
-        <v>34341.29631953085</v>
+        <v>37355.21677908165</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -5772,22 +6453,31 @@
         <v>7300</v>
       </c>
       <c r="Q76" t="n">
-        <v>392.9999999999995</v>
+        <v>378.0000000000008</v>
       </c>
       <c r="R76" t="n">
         <v>2</v>
       </c>
       <c r="S76" t="n">
-        <v>48333.59999999991</v>
+        <v>45405.60000000015</v>
       </c>
       <c r="T76" t="n">
-        <v>573.9999999999995</v>
+        <v>574.0000000000008</v>
       </c>
       <c r="U76" t="n">
         <v>3</v>
       </c>
       <c r="V76" t="n">
-        <v>95159.59999999986</v>
+        <v>95159.60000000022</v>
+      </c>
+      <c r="W76" t="n">
+        <v>90060.8167790818</v>
+      </c>
+      <c r="X76" t="n">
+        <v>102459.6000000002</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>12398.78322091843</v>
       </c>
     </row>
     <row r="77">
@@ -5800,7 +6490,7 @@
         <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>404.0000000000005</v>
+        <v>404</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -5815,10 +6505,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I77" t="n">
-        <v>19273.64081018869</v>
+        <v>19264.71994045148</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -5842,22 +6532,31 @@
         <v>1600</v>
       </c>
       <c r="Q77" t="n">
-        <v>298.0000000000005</v>
+        <v>299</v>
       </c>
       <c r="R77" t="n">
         <v>1</v>
       </c>
       <c r="S77" t="n">
-        <v>29978.80000000004</v>
+        <v>30079.4</v>
       </c>
       <c r="T77" t="n">
-        <v>404.0000000000005</v>
+        <v>404</v>
       </c>
       <c r="U77" t="n">
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>50480.80000000009</v>
+        <v>50480.8</v>
+      </c>
+      <c r="W77" t="n">
+        <v>50944.11994045148</v>
+      </c>
+      <c r="X77" t="n">
+        <v>52080.8</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1136.680059548526</v>
       </c>
     </row>
     <row r="78">
@@ -5870,19 +6569,19 @@
         <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>86.49237170289668</v>
+        <v>85.94432111055546</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>201.7714223353518</v>
+        <v>202.2054959710881</v>
       </c>
       <c r="F78" t="n">
-        <v>-91</v>
+        <v>-172</v>
       </c>
       <c r="G78" t="n">
-        <v>115.2790506324551</v>
+        <v>116.2611748605326</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5891,34 +6590,34 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-99</v>
+        <v>-110</v>
       </c>
       <c r="K78" t="n">
-        <v>-18865.93710796</v>
+        <v>-20548.53113277635</v>
       </c>
       <c r="L78" t="n">
-        <v>-99</v>
+        <v>92.20549597108811</v>
       </c>
       <c r="M78" t="n">
         <v>76.33483870967743</v>
       </c>
       <c r="N78" t="n">
-        <v>-8799.8077366332</v>
+        <v>-8874.778031176364</v>
       </c>
       <c r="O78" t="n">
-        <v>7274.389999999999</v>
+        <v>-6849.120064272321</v>
       </c>
       <c r="P78" t="n">
         <v>910</v>
       </c>
       <c r="Q78" t="n">
-        <v>86.49237170289668</v>
+        <v>85.94432111055546</v>
       </c>
       <c r="R78" t="n">
         <v>1</v>
       </c>
       <c r="S78" t="n">
-        <v>8701.132593311406</v>
+        <v>8645.99870372188</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -5928,6 +6627,15 @@
       </c>
       <c r="V78" t="n">
         <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>-17841.65249332679</v>
+      </c>
+      <c r="X78" t="n">
+        <v>-7964.778031176364</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>9876.87446215043</v>
       </c>
     </row>
     <row r="79">
@@ -5940,19 +6648,19 @@
         <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>117.4402250573863</v>
+        <v>120.8993638348665</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>348.2386427781453</v>
+        <v>353.3346552690873</v>
       </c>
       <c r="F79" t="n">
-        <v>-222</v>
+        <v>-322</v>
       </c>
       <c r="G79" t="n">
-        <v>230.798417720759</v>
+        <v>232.4352914342208</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5961,34 +6669,34 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-205</v>
+        <v>-220</v>
       </c>
       <c r="K79" t="n">
-        <v>-37886.99533524088</v>
+        <v>-40866.02509731425</v>
       </c>
       <c r="L79" t="n">
-        <v>-205</v>
+        <v>133.3346552690873</v>
       </c>
       <c r="M79" t="n">
         <v>76.33483870967743</v>
       </c>
       <c r="N79" t="n">
-        <v>-17617.95999116289</v>
+        <v>-17742.91048206811</v>
       </c>
       <c r="O79" t="n">
-        <v>15124.35</v>
+        <v>-9912.946915055654</v>
       </c>
       <c r="P79" t="n">
         <v>910</v>
       </c>
       <c r="Q79" t="n">
-        <v>117.4402250573863</v>
+        <v>120.8993638348665</v>
       </c>
       <c r="R79" t="n">
         <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>11814.48664077307</v>
+        <v>12162.47600178757</v>
       </c>
       <c r="T79" t="n">
         <v>0</v>
@@ -5998,6 +6706,15 @@
       </c>
       <c r="V79" t="n">
         <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>-37706.49601058234</v>
+      </c>
+      <c r="X79" t="n">
+        <v>-16832.91048206811</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>20873.58552851423</v>
       </c>
     </row>
     <row r="80">
@@ -6010,7 +6727,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>527</v>
+        <v>526.9999999999992</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -6025,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I80" t="n">
-        <v>32001.72649299159</v>
+        <v>32531.47110938099</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -6052,22 +6769,31 @@
         <v>7300</v>
       </c>
       <c r="Q80" t="n">
-        <v>359</v>
+        <v>354.9999999999992</v>
       </c>
       <c r="R80" t="n">
         <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>41696.8</v>
+        <v>40915.99999999984</v>
       </c>
       <c r="T80" t="n">
-        <v>527</v>
+        <v>526.9999999999992</v>
       </c>
       <c r="U80" t="n">
         <v>3</v>
       </c>
       <c r="V80" t="n">
-        <v>81628.3</v>
+        <v>81628.29999999977</v>
+      </c>
+      <c r="W80" t="n">
+        <v>80747.47110938083</v>
+      </c>
+      <c r="X80" t="n">
+        <v>88928.29999999977</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>8180.828890618941</v>
       </c>
     </row>
     <row r="81">
@@ -6080,16 +6806,16 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>274.7410371868075</v>
+        <v>276.2058366004109</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>122.0200878192627</v>
+        <v>124.4670114609438</v>
       </c>
       <c r="F81" t="n">
-        <v>-47</v>
+        <v>-94</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -6101,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="K81" t="n">
-        <v>-4651.732914828218</v>
+        <v>-5253.73695795301</v>
       </c>
       <c r="L81" t="n">
-        <v>-25</v>
+        <v>96.46701146094377</v>
       </c>
       <c r="M81" t="n">
         <v>76.33483870967743</v>
@@ -6116,28 +6842,37 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1814.82</v>
+        <v>-7183.031872737079</v>
       </c>
       <c r="P81" t="n">
         <v>910</v>
       </c>
       <c r="Q81" t="n">
-        <v>274.7410371868075</v>
+        <v>276.2058366004109</v>
       </c>
       <c r="R81" t="n">
         <v>1</v>
       </c>
       <c r="S81" t="n">
-        <v>27638.94834099284</v>
+        <v>27786.30716200134</v>
       </c>
       <c r="T81" t="n">
-        <v>152.7209493675449</v>
+        <v>151.7388251394672</v>
       </c>
       <c r="U81" t="n">
         <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>15363.72750637502</v>
+        <v>15264.9258090304</v>
+      </c>
+      <c r="W81" t="n">
+        <v>16259.53833131125</v>
+      </c>
+      <c r="X81" t="n">
+        <v>16174.9258090304</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>-84.61252228085141</v>
       </c>
     </row>
     <row r="82">
@@ -6150,34 +6885,34 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>267.792897047945</v>
+        <v>267.9675617090585</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>127.477890369505</v>
+        <v>129.5146406399836</v>
       </c>
       <c r="F82" t="n">
-        <v>-53</v>
+        <v>-103</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>1130.398021185374</v>
+        <v>390.4</v>
       </c>
       <c r="J82" t="n">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="K82" t="n">
-        <v>-3052.493148679554</v>
+        <v>-1775.649512656517</v>
       </c>
       <c r="L82" t="n">
-        <v>-19</v>
+        <v>118.5146406399836</v>
       </c>
       <c r="M82" t="n">
         <v>72.65355555555556</v>
@@ -6186,28 +6921,37 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1354.35</v>
+        <v>-8614.351993688457</v>
       </c>
       <c r="P82" t="n">
         <v>1600</v>
       </c>
       <c r="Q82" t="n">
-        <v>261.792897047945</v>
+        <v>265.9675617090585</v>
       </c>
       <c r="R82" t="n">
         <v>2</v>
       </c>
       <c r="S82" t="n">
-        <v>32181.97350375887</v>
+        <v>32996.86804560823</v>
       </c>
       <c r="T82" t="n">
-        <v>140.31500667844</v>
+        <v>138.4529210690749</v>
       </c>
       <c r="U82" t="n">
         <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>14115.68967185107</v>
+        <v>13928.36385954894</v>
+      </c>
+      <c r="W82" t="n">
+        <v>24597.26653926326</v>
+      </c>
+      <c r="X82" t="n">
+        <v>15528.36385954894</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>-9068.902679714318</v>
       </c>
     </row>
     <row r="83">
@@ -6268,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="S83" t="n">
-        <v>19214.59999999999</v>
+        <v>19214.6</v>
       </c>
       <c r="T83" t="n">
         <v>191</v>
@@ -6277,7 +7021,16 @@
         <v>1</v>
       </c>
       <c r="V83" t="n">
-        <v>19214.59999999999</v>
+        <v>19214.6</v>
+      </c>
+      <c r="W83" t="n">
+        <v>20124.6</v>
+      </c>
+      <c r="X83" t="n">
+        <v>20124.6</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -6290,7 +7043,7 @@
         <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>454.0000000000002</v>
+        <v>453.9999999999997</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -6305,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="I84" t="n">
-        <v>17749.4031884825</v>
+        <v>20594.23427527125</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -6332,22 +7085,31 @@
         <v>7300</v>
       </c>
       <c r="Q84" t="n">
-        <v>344.0000000000002</v>
+        <v>331.9999999999997</v>
       </c>
       <c r="R84" t="n">
         <v>2</v>
       </c>
       <c r="S84" t="n">
-        <v>48228.80000000003</v>
+        <v>45886.39999999994</v>
       </c>
       <c r="T84" t="n">
-        <v>454.0000000000002</v>
+        <v>453.9999999999997</v>
       </c>
       <c r="U84" t="n">
         <v>3</v>
       </c>
       <c r="V84" t="n">
-        <v>74706.60000000005</v>
+        <v>74706.5999999999</v>
+      </c>
+      <c r="W84" t="n">
+        <v>73780.63427527119</v>
+      </c>
+      <c r="X84" t="n">
+        <v>82006.5999999999</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>8225.96572472871</v>
       </c>
     </row>
     <row r="85">
@@ -6360,19 +7122,19 @@
         <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>256.9026628581223</v>
+        <v>259.843943893066</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>274.0443183940554</v>
+        <v>280.0890754446097</v>
       </c>
       <c r="F85" t="n">
-        <v>-175</v>
+        <v>-245</v>
       </c>
       <c r="G85" t="n">
-        <v>17.14165553593307</v>
+        <v>20.24513155154369</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6381,34 +7143,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-56</v>
+        <v>-58</v>
       </c>
       <c r="K85" t="n">
-        <v>-9305.907320913973</v>
+        <v>-9826.948885221407</v>
       </c>
       <c r="L85" t="n">
-        <v>-56</v>
+        <v>222.0890754446097</v>
       </c>
       <c r="M85" t="n">
         <v>72.65355555555556</v>
       </c>
       <c r="N85" t="n">
-        <v>-1245.40222279411</v>
+        <v>-1470.88078990961</v>
       </c>
       <c r="O85" t="n">
-        <v>3979.860000000001</v>
+        <v>-15890.0930104462</v>
       </c>
       <c r="P85" t="n">
         <v>1600</v>
       </c>
       <c r="Q85" t="n">
-        <v>256.9026628581223</v>
+        <v>259.843943893066</v>
       </c>
       <c r="R85" t="n">
         <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>31227.39978990547</v>
+        <v>31801.53784792648</v>
       </c>
       <c r="T85" t="n">
         <v>0</v>
@@ -6418,6 +7180,15 @@
       </c>
       <c r="V85" t="n">
         <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>7684.495952258872</v>
+      </c>
+      <c r="X85" t="n">
+        <v>129.1192100903897</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>-7555.376742168482</v>
       </c>
     </row>
     <row r="86">
@@ -6430,7 +7201,7 @@
         <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>71.00000000000006</v>
+        <v>70.99999999999991</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -6472,22 +7243,31 @@
         <v>910</v>
       </c>
       <c r="Q86" t="n">
-        <v>71.00000000000006</v>
+        <v>70.99999999999991</v>
       </c>
       <c r="R86" t="n">
         <v>1</v>
       </c>
       <c r="S86" t="n">
-        <v>7142.600000000005</v>
+        <v>7142.599999999991</v>
       </c>
       <c r="T86" t="n">
-        <v>71.00000000000006</v>
+        <v>70.99999999999991</v>
       </c>
       <c r="U86" t="n">
         <v>1</v>
       </c>
       <c r="V86" t="n">
-        <v>7142.600000000005</v>
+        <v>7142.599999999991</v>
+      </c>
+      <c r="W86" t="n">
+        <v>8052.599999999991</v>
+      </c>
+      <c r="X86" t="n">
+        <v>8052.599999999991</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -6500,7 +7280,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>98.99999999999993</v>
+        <v>98.99999999999994</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -6542,22 +7322,31 @@
         <v>910</v>
       </c>
       <c r="Q87" t="n">
-        <v>98.99999999999993</v>
+        <v>98.99999999999994</v>
       </c>
       <c r="R87" t="n">
         <v>1</v>
       </c>
       <c r="S87" t="n">
-        <v>9959.399999999992</v>
+        <v>9959.399999999994</v>
       </c>
       <c r="T87" t="n">
-        <v>98.99999999999993</v>
+        <v>98.99999999999994</v>
       </c>
       <c r="U87" t="n">
         <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>9959.399999999992</v>
+        <v>9959.399999999994</v>
+      </c>
+      <c r="W87" t="n">
+        <v>10869.39999999999</v>
+      </c>
+      <c r="X87" t="n">
+        <v>10869.39999999999</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6570,19 +7359,19 @@
         <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>140.1789144289254</v>
+        <v>140.865503281752</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>171.8639077504853</v>
+        <v>174.4125822126781</v>
       </c>
       <c r="F88" t="n">
-        <v>-75</v>
+        <v>-142</v>
       </c>
       <c r="G88" t="n">
-        <v>31.68499332155997</v>
+        <v>33.54707893092609</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6591,34 +7380,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-46</v>
+        <v>-42</v>
       </c>
       <c r="K88" t="n">
-        <v>-7576.024823704854</v>
+        <v>-6971.148385534128</v>
       </c>
       <c r="L88" t="n">
-        <v>-46</v>
+        <v>132.4125822126781</v>
       </c>
       <c r="M88" t="n">
         <v>72.65355555555556</v>
       </c>
       <c r="N88" t="n">
-        <v>-2302.027422565364</v>
+        <v>-2437.314562834646</v>
       </c>
       <c r="O88" t="n">
-        <v>3263.68</v>
+        <v>-9388.763582123047</v>
       </c>
       <c r="P88" t="n">
         <v>910</v>
       </c>
       <c r="Q88" t="n">
-        <v>140.1789144289254</v>
+        <v>140.865503281752</v>
       </c>
       <c r="R88" t="n">
         <v>1</v>
       </c>
       <c r="S88" t="n">
-        <v>14101.99879154989</v>
+        <v>14171.06963014425</v>
       </c>
       <c r="T88" t="n">
         <v>0</v>
@@ -6628,6 +7417,15 @@
       </c>
       <c r="V88" t="n">
         <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>-1278.842337512926</v>
+      </c>
+      <c r="X88" t="n">
+        <v>-1527.314562834646</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>-248.4722253217201</v>
       </c>
     </row>
     <row r="89">
@@ -6640,19 +7438,19 @@
         <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>184.943358398696</v>
+        <v>184.5838119867654</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>310.0850139346296</v>
+        <v>312.8289435383087</v>
       </c>
       <c r="F89" t="n">
-        <v>-201</v>
+        <v>-283</v>
       </c>
       <c r="G89" t="n">
-        <v>125.1416555359336</v>
+        <v>128.2451315515433</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6661,34 +7459,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>-84</v>
+        <v>-115</v>
       </c>
       <c r="K89" t="n">
-        <v>-14427.77084184663</v>
+        <v>-19879.45216746504</v>
       </c>
       <c r="L89" t="n">
-        <v>-84</v>
+        <v>197.8289435383087</v>
       </c>
       <c r="M89" t="n">
         <v>72.65355555555556</v>
       </c>
       <c r="N89" t="n">
-        <v>-9091.986222794145</v>
+        <v>-9317.46478990958</v>
       </c>
       <c r="O89" t="n">
-        <v>5990.28</v>
+        <v>-14254.90726874938</v>
       </c>
       <c r="P89" t="n">
         <v>910</v>
       </c>
       <c r="Q89" t="n">
-        <v>184.943358398696</v>
+        <v>184.5838119867654</v>
       </c>
       <c r="R89" t="n">
         <v>1</v>
       </c>
       <c r="S89" t="n">
-        <v>18605.30185490882</v>
+        <v>18569.1314858686</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -6698,6 +7496,15 @@
       </c>
       <c r="V89" t="n">
         <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>-14655.22795034581</v>
+      </c>
+      <c r="X89" t="n">
+        <v>-8407.46478990958</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>6247.763160436232</v>
       </c>
     </row>
     <row r="90">
@@ -6710,7 +7517,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>308.0000000000003</v>
+        <v>307.9999999999997</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -6725,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I90" t="n">
-        <v>13981.05768078695</v>
+        <v>15136.05717598985</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -6752,22 +7559,31 @@
         <v>1600</v>
       </c>
       <c r="Q90" t="n">
-        <v>228.0000000000003</v>
+        <v>220.9999999999997</v>
       </c>
       <c r="R90" t="n">
         <v>2</v>
       </c>
       <c r="S90" t="n">
-        <v>25585.60000000006</v>
+        <v>24219.19999999995</v>
       </c>
       <c r="T90" t="n">
-        <v>308.0000000000003</v>
+        <v>307.9999999999997</v>
       </c>
       <c r="U90" t="n">
         <v>2</v>
       </c>
       <c r="V90" t="n">
-        <v>41201.60000000005</v>
+        <v>41201.59999999995</v>
+      </c>
+      <c r="W90" t="n">
+        <v>40955.2571759898</v>
+      </c>
+      <c r="X90" t="n">
+        <v>42801.59999999995</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1846.342824010149</v>
       </c>
     </row>
     <row r="91">
@@ -6780,34 +7596,34 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>419.7359825471144</v>
+        <v>421.927946259866</v>
       </c>
       <c r="D91" t="n">
         <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>89.42097586867388</v>
+        <v>93.47502519079146</v>
       </c>
       <c r="F91" t="n">
-        <v>-33</v>
+        <v>-63</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I91" t="n">
-        <v>2351.476966430446</v>
+        <v>3641.399279919428</v>
       </c>
       <c r="J91" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="K91" t="n">
-        <v>-601.5817535193403</v>
+        <v>-912.2845801707641</v>
       </c>
       <c r="L91" t="n">
-        <v>-4</v>
+        <v>88.47502519079146</v>
       </c>
       <c r="M91" t="n">
         <v>72.65355555555556</v>
@@ -6816,28 +7632,37 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>305.01</v>
+        <v>-7892.968022444328</v>
       </c>
       <c r="P91" t="n">
         <v>7300</v>
       </c>
       <c r="Q91" t="n">
-        <v>406.7359825471144</v>
+        <v>401.927946259866</v>
       </c>
       <c r="R91" t="n">
         <v>3</v>
       </c>
       <c r="S91" t="n">
-        <v>61099.28937531423</v>
+        <v>59715.05572821541</v>
       </c>
       <c r="T91" t="n">
-        <v>330.3150066784405</v>
+        <v>328.4529210690745</v>
       </c>
       <c r="U91" t="n">
         <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>45557.48930363158</v>
+        <v>45194.01019268334</v>
+      </c>
+      <c r="W91" t="n">
+        <v>61851.20240551975</v>
+      </c>
+      <c r="X91" t="n">
+        <v>52494.01019268334</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>-9357.192212836409</v>
       </c>
     </row>
     <row r="92">
@@ -6850,19 +7675,19 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>140.9416701995273</v>
+        <v>140.7115175938395</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>181.2207208319824</v>
+        <v>181.9726924543722</v>
       </c>
       <c r="F92" t="n">
-        <v>-83</v>
+        <v>-150</v>
       </c>
       <c r="G92" t="n">
-        <v>40.27905063245512</v>
+        <v>41.26117486053278</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6871,34 +7696,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-37</v>
+        <v>-40</v>
       </c>
       <c r="K92" t="n">
-        <v>-6300.783228242931</v>
+        <v>-7088.607110142276</v>
       </c>
       <c r="L92" t="n">
-        <v>-37</v>
+        <v>141.9726924543722</v>
       </c>
       <c r="M92" t="n">
         <v>78.9689247311828</v>
       </c>
       <c r="N92" t="n">
-        <v>-3180.79331763785</v>
+        <v>-3258.350611881584</v>
       </c>
       <c r="O92" t="n">
-        <v>2681.11</v>
+        <v>-10729.38781521053</v>
       </c>
       <c r="P92" t="n">
         <v>910</v>
       </c>
       <c r="Q92" t="n">
-        <v>140.9416701995273</v>
+        <v>140.7115175938395</v>
       </c>
       <c r="R92" t="n">
         <v>1</v>
       </c>
       <c r="S92" t="n">
-        <v>14178.73202207244</v>
+        <v>14155.57866994025</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
@@ -6908,6 +7733,15 @@
       </c>
       <c r="V92" t="n">
         <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>-2752.416255412558</v>
+      </c>
+      <c r="X92" t="n">
+        <v>-2348.350611881584</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>404.0656435309734</v>
       </c>
     </row>
     <row r="93">
@@ -6938,7 +7772,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>538.7768337329751</v>
+        <v>506.2911541983916</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -6977,7 +7811,16 @@
         <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>20510.40000000002</v>
+        <v>20510.40000000003</v>
+      </c>
+      <c r="W93" t="n">
+        <v>22125.6911541984</v>
+      </c>
+      <c r="X93" t="n">
+        <v>22110.40000000003</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>-15.29115419837763</v>
       </c>
     </row>
     <row r="94">
@@ -6990,7 +7833,7 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>548</v>
+        <v>547.9999999999993</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -7005,10 +7848,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I94" t="n">
-        <v>24414.54551347733</v>
+        <v>25708.96045800063</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -7032,22 +7875,31 @@
         <v>7300</v>
       </c>
       <c r="Q94" t="n">
-        <v>404</v>
+        <v>398.9999999999993</v>
       </c>
       <c r="R94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S94" t="n">
-        <v>60311.6</v>
+        <v>58964.79999999986</v>
       </c>
       <c r="T94" t="n">
-        <v>548</v>
+        <v>547.9999999999993</v>
       </c>
       <c r="U94" t="n">
         <v>3</v>
       </c>
       <c r="V94" t="n">
-        <v>101769.2</v>
+        <v>101769.1999999998</v>
+      </c>
+      <c r="W94" t="n">
+        <v>91973.7604580005</v>
+      </c>
+      <c r="X94" t="n">
+        <v>109069.1999999998</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>17095.43954199931</v>
       </c>
     </row>
     <row r="95">
@@ -7060,55 +7912,55 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>247.8493677319608</v>
+        <v>253.1340607505895</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>291.6477854527198</v>
+        <v>298.5693521848107</v>
       </c>
       <c r="F95" t="n">
-        <v>-190</v>
+        <v>-269</v>
       </c>
       <c r="G95" t="n">
-        <v>43.79841772075903</v>
+        <v>45.4352914342212</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>195.2</v>
+        <v>160.0799152987809</v>
       </c>
       <c r="J95" t="n">
-        <v>-66</v>
+        <v>-70</v>
       </c>
       <c r="K95" t="n">
-        <v>-11572.10023131186</v>
+        <v>-12459.19164012499</v>
       </c>
       <c r="L95" t="n">
-        <v>-66</v>
+        <v>228.5693521848107</v>
       </c>
       <c r="M95" t="n">
         <v>78.9689247311828</v>
       </c>
       <c r="N95" t="n">
-        <v>-3458.713952335523</v>
+        <v>-3587.976109408368</v>
       </c>
       <c r="O95" t="n">
-        <v>5007.339999999999</v>
+        <v>-17420.13005767354</v>
       </c>
       <c r="P95" t="n">
         <v>1600</v>
       </c>
       <c r="Q95" t="n">
-        <v>246.8493677319608</v>
+        <v>252.1340607505895</v>
       </c>
       <c r="R95" t="n">
         <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>29264.99658127874</v>
+        <v>30296.56865851508</v>
       </c>
       <c r="T95" t="n">
         <v>0</v>
@@ -7118,6 +7970,15 @@
       </c>
       <c r="V95" t="n">
         <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>2177.326876015322</v>
+      </c>
+      <c r="X95" t="n">
+        <v>-1987.976109408368</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>-4165.30298542369</v>
       </c>
     </row>
     <row r="96">
@@ -7145,10 +8006,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I96" t="n">
-        <v>16003.61097229637</v>
+        <v>18068.43652193986</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -7172,13 +8033,13 @@
         <v>1600</v>
       </c>
       <c r="Q96" t="n">
-        <v>210.0000000000001</v>
+        <v>199.0000000000001</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S96" t="n">
-        <v>22072.00000000001</v>
+        <v>20019.40000000001</v>
       </c>
       <c r="T96" t="n">
         <v>299.0000000000001</v>
@@ -7187,7 +8048,16 @@
         <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>39444.80000000001</v>
+        <v>39444.80000000002</v>
+      </c>
+      <c r="W96" t="n">
+        <v>39687.83652193987</v>
+      </c>
+      <c r="X96" t="n">
+        <v>41044.80000000002</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1356.963478060148</v>
       </c>
     </row>
     <row r="97">
@@ -7200,7 +8070,7 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>261.9999999999999</v>
+        <v>262</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -7215,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I97" t="n">
-        <v>11194.81423890487</v>
+        <v>11246.37373571741</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -7242,22 +8112,31 @@
         <v>1600</v>
       </c>
       <c r="Q97" t="n">
-        <v>199.9999999999999</v>
+        <v>199</v>
       </c>
       <c r="R97" t="n">
         <v>1</v>
       </c>
       <c r="S97" t="n">
-        <v>20119.99999999999</v>
+        <v>20019.4</v>
       </c>
       <c r="T97" t="n">
-        <v>261.9999999999999</v>
+        <v>262</v>
       </c>
       <c r="U97" t="n">
         <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>32222.39999999999</v>
+        <v>32222.4</v>
+      </c>
+      <c r="W97" t="n">
+        <v>32865.7737357174</v>
+      </c>
+      <c r="X97" t="n">
+        <v>33822.4</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>956.6262642825968</v>
       </c>
     </row>
     <row r="98">
@@ -7270,19 +8149,19 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>55.46876750929901</v>
+        <v>56.29025205831712</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>221.7478181417543</v>
+        <v>223.5514269188496</v>
       </c>
       <c r="F98" t="n">
-        <v>-104</v>
+        <v>-194</v>
       </c>
       <c r="G98" t="n">
-        <v>166.2790506324553</v>
+        <v>167.2611748605325</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7291,34 +8170,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>-88</v>
+        <v>-92</v>
       </c>
       <c r="K98" t="n">
-        <v>-15675.15733453099</v>
+        <v>-16191.28920621777</v>
       </c>
       <c r="L98" t="n">
-        <v>-88</v>
+        <v>131.5514269188496</v>
       </c>
       <c r="M98" t="n">
         <v>78.9689247311828</v>
       </c>
       <c r="N98" t="n">
-        <v>-13130.87783376689</v>
+        <v>-13208.43512801059</v>
       </c>
       <c r="O98" t="n">
-        <v>6826.7</v>
+        <v>-9972.12005401768</v>
       </c>
       <c r="P98" t="n">
         <v>910</v>
       </c>
       <c r="Q98" t="n">
-        <v>55.46876750929901</v>
+        <v>56.29025205831712</v>
       </c>
       <c r="R98" t="n">
         <v>1</v>
       </c>
       <c r="S98" t="n">
-        <v>5580.15801143548</v>
+        <v>5662.799357066701</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
@@ -7328,6 +8207,15 @@
       </c>
       <c r="V98" t="n">
         <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>-19590.60990316875</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-12298.43512801059</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>7292.174775158153</v>
       </c>
     </row>
     <row r="99">
@@ -7340,55 +8228,55 @@
         <v>10</v>
       </c>
       <c r="C99" t="n">
-        <v>247.9836677619876</v>
+        <v>248.3116395231052</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>296.7820854827464</v>
+        <v>298.7469309573264</v>
       </c>
       <c r="F99" t="n">
-        <v>-196</v>
+        <v>-269</v>
       </c>
       <c r="G99" t="n">
-        <v>48.79841772075886</v>
+        <v>50.43529143422126</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>195.2</v>
+        <v>159.5523921954619</v>
       </c>
       <c r="J99" t="n">
-        <v>-73</v>
+        <v>-67</v>
       </c>
       <c r="K99" t="n">
-        <v>-13009.40016527907</v>
+        <v>-11717.61001654188</v>
       </c>
       <c r="L99" t="n">
-        <v>-73</v>
+        <v>231.7469309573264</v>
       </c>
       <c r="M99" t="n">
         <v>78.9689247311828</v>
       </c>
       <c r="N99" t="n">
-        <v>-3853.558575991423</v>
+        <v>-3982.820733064287</v>
       </c>
       <c r="O99" t="n">
-        <v>5539.719999999999</v>
+        <v>-17657.25734998186</v>
       </c>
       <c r="P99" t="n">
         <v>1600</v>
       </c>
       <c r="Q99" t="n">
-        <v>246.9836677619876</v>
+        <v>247.3116395231052</v>
       </c>
       <c r="R99" t="n">
         <v>2</v>
       </c>
       <c r="S99" t="n">
-        <v>29291.21194713997</v>
+        <v>29355.23203491013</v>
       </c>
       <c r="T99" t="n">
         <v>0</v>
@@ -7398,6 +8286,15 @@
       </c>
       <c r="V99" t="n">
         <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1739.917060581844</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-2382.820733064287</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>-4122.737793646131</v>
       </c>
     </row>
     <row r="100">
@@ -7410,7 +8307,7 @@
         <v>10</v>
       </c>
       <c r="C100" t="n">
-        <v>56.00000000000006</v>
+        <v>56.00000000000002</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -7452,22 +8349,31 @@
         <v>910</v>
       </c>
       <c r="Q100" t="n">
-        <v>56.00000000000006</v>
+        <v>56.00000000000002</v>
       </c>
       <c r="R100" t="n">
         <v>1</v>
       </c>
       <c r="S100" t="n">
-        <v>5633.600000000006</v>
+        <v>5633.600000000002</v>
       </c>
       <c r="T100" t="n">
-        <v>56.00000000000006</v>
+        <v>56.00000000000002</v>
       </c>
       <c r="U100" t="n">
         <v>1</v>
       </c>
       <c r="V100" t="n">
-        <v>5633.600000000006</v>
+        <v>5633.600000000002</v>
+      </c>
+      <c r="W100" t="n">
+        <v>6543.600000000002</v>
+      </c>
+      <c r="X100" t="n">
+        <v>6543.600000000002</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -7480,19 +8386,19 @@
         <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>155.9981054431413</v>
+        <v>160.4355392848755</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>170.2771560755973</v>
+        <v>175.6967141454082</v>
       </c>
       <c r="F101" t="n">
-        <v>-69</v>
+        <v>-143</v>
       </c>
       <c r="G101" t="n">
-        <v>14.27905063245603</v>
+        <v>15.26117486053272</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7501,34 +8407,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>-36</v>
+        <v>-48</v>
       </c>
       <c r="K101" t="n">
-        <v>-6031.423220703409</v>
+        <v>-8323.571873583018</v>
       </c>
       <c r="L101" t="n">
-        <v>-36</v>
+        <v>127.6967141454082</v>
       </c>
       <c r="M101" t="n">
         <v>78.9689247311828</v>
       </c>
       <c r="N101" t="n">
-        <v>-1127.601274627169</v>
+        <v>-1205.158568870827</v>
       </c>
       <c r="O101" t="n">
-        <v>2752.4</v>
+        <v>-9711.846612029436</v>
       </c>
       <c r="P101" t="n">
         <v>910</v>
       </c>
       <c r="Q101" t="n">
-        <v>155.9981054431413</v>
+        <v>160.4355392848755</v>
       </c>
       <c r="R101" t="n">
         <v>1</v>
       </c>
       <c r="S101" t="n">
-        <v>15693.40940758001</v>
+        <v>16139.81525205847</v>
       </c>
       <c r="T101" t="n">
         <v>0</v>
@@ -7538,6 +8444,15 @@
       </c>
       <c r="V101" t="n">
         <v>0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>-985.6032335539858</v>
+      </c>
+      <c r="X101" t="n">
+        <v>-295.1585688708274</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>690.4446646831584</v>
       </c>
     </row>
     <row r="102">
@@ -7550,19 +8465,19 @@
         <v>11</v>
       </c>
       <c r="C102" t="n">
-        <v>63.85149931113462</v>
+        <v>63.48166222148541</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>211.5364926326949</v>
+        <v>213.0287411524115</v>
       </c>
       <c r="F102" t="n">
-        <v>-96</v>
+        <v>-181</v>
       </c>
       <c r="G102" t="n">
-        <v>147.6849933215602</v>
+        <v>149.5470789309261</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7571,34 +8486,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="K102" t="n">
-        <v>-15655.83736823471</v>
+        <v>-16451.91366866627</v>
       </c>
       <c r="L102" t="n">
-        <v>-94</v>
+        <v>113.0287411524115</v>
       </c>
       <c r="M102" t="n">
         <v>78.15766666666667</v>
       </c>
       <c r="N102" t="n">
-        <v>-11542.7144796954</v>
+        <v>-11688.25074605701</v>
       </c>
       <c r="O102" t="n">
-        <v>7254.269999999999</v>
+        <v>-8681.893084269355</v>
       </c>
       <c r="P102" t="n">
         <v>910</v>
       </c>
       <c r="Q102" t="n">
-        <v>63.85149931113462</v>
+        <v>63.48166222148541</v>
       </c>
       <c r="R102" t="n">
         <v>1</v>
       </c>
       <c r="S102" t="n">
-        <v>6423.460830700142</v>
+        <v>6386.255219481433</v>
       </c>
       <c r="T102" t="n">
         <v>0</v>
@@ -7608,6 +8523,15 @@
       </c>
       <c r="V102" t="n">
         <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>-17837.55153345419</v>
+      </c>
+      <c r="X102" t="n">
+        <v>-10778.25074605701</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>7059.30078739718</v>
       </c>
     </row>
     <row r="103">
@@ -7620,7 +8544,7 @@
         <v>11</v>
       </c>
       <c r="C103" t="n">
-        <v>254.0000000000004</v>
+        <v>254.0000000000003</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -7638,7 +8562,7 @@
         <v>55</v>
       </c>
       <c r="I103" t="n">
-        <v>10353.86404625039</v>
+        <v>10300.10945673747</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -7662,22 +8586,31 @@
         <v>1600</v>
       </c>
       <c r="Q103" t="n">
-        <v>199.0000000000004</v>
+        <v>199.0000000000003</v>
       </c>
       <c r="R103" t="n">
         <v>1</v>
       </c>
       <c r="S103" t="n">
-        <v>20019.40000000004</v>
+        <v>20019.40000000003</v>
       </c>
       <c r="T103" t="n">
-        <v>254.0000000000004</v>
+        <v>254.0000000000003</v>
       </c>
       <c r="U103" t="n">
         <v>2</v>
       </c>
       <c r="V103" t="n">
-        <v>30660.80000000008</v>
+        <v>30660.80000000005</v>
+      </c>
+      <c r="W103" t="n">
+        <v>31919.5094567375</v>
+      </c>
+      <c r="X103" t="n">
+        <v>32260.80000000005</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>341.2905432625557</v>
       </c>
     </row>
     <row r="104">
@@ -7690,7 +8623,7 @@
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>231.9999999999999</v>
+        <v>232.0000000000001</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -7705,10 +8638,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I104" t="n">
-        <v>6240.623563550124</v>
+        <v>6426.180551887891</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -7732,22 +8665,31 @@
         <v>1600</v>
       </c>
       <c r="Q104" t="n">
-        <v>198.9999999999999</v>
+        <v>198.0000000000001</v>
       </c>
       <c r="R104" t="n">
         <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>20019.39999999999</v>
+        <v>19918.8</v>
       </c>
       <c r="T104" t="n">
-        <v>231.9999999999999</v>
+        <v>232.0000000000001</v>
       </c>
       <c r="U104" t="n">
         <v>2</v>
       </c>
       <c r="V104" t="n">
-        <v>26366.39999999998</v>
+        <v>26366.40000000001</v>
+      </c>
+      <c r="W104" t="n">
+        <v>27944.98055188789</v>
+      </c>
+      <c r="X104" t="n">
+        <v>27966.40000000001</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>21.41944811211579</v>
       </c>
     </row>
     <row r="105">
@@ -7760,19 +8702,19 @@
         <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>65.10051478138152</v>
+        <v>65.7461283937425</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>374.2421703173151</v>
+        <v>377.9912599452857</v>
       </c>
       <c r="F105" t="n">
-        <v>-240</v>
+        <v>-351</v>
       </c>
       <c r="G105" t="n">
-        <v>309.1416555359335</v>
+        <v>312.2451315515432</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7781,34 +8723,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-164</v>
+        <v>-189</v>
       </c>
       <c r="K105" t="n">
-        <v>-27625.74301391047</v>
+        <v>-31266.82233614719</v>
       </c>
       <c r="L105" t="n">
-        <v>-164</v>
+        <v>188.9912599452857</v>
       </c>
       <c r="M105" t="n">
         <v>78.15766666666667</v>
       </c>
       <c r="N105" t="n">
-        <v>-24161.79046615898</v>
+        <v>-24404.350910095</v>
       </c>
       <c r="O105" t="n">
-        <v>12524.74</v>
+        <v>-14535.40664255044</v>
       </c>
       <c r="P105" t="n">
         <v>910</v>
       </c>
       <c r="Q105" t="n">
-        <v>65.10051478138152</v>
+        <v>65.7461283937425</v>
       </c>
       <c r="R105" t="n">
         <v>1</v>
       </c>
       <c r="S105" t="n">
-        <v>6549.11178700698</v>
+        <v>6614.060516410495</v>
       </c>
       <c r="T105" t="n">
         <v>0</v>
@@ -7818,6 +8760,15 @@
       </c>
       <c r="V105" t="n">
         <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>-38278.16846228714</v>
+      </c>
+      <c r="X105" t="n">
+        <v>-23494.350910095</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>14783.81755219214</v>
       </c>
     </row>
     <row r="106">
@@ -7830,7 +8781,7 @@
         <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>535.0000000000008</v>
+        <v>535.0000000000002</v>
       </c>
       <c r="D106" t="n">
         <v>3</v>
@@ -7845,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I106" t="n">
-        <v>44721.24608520027</v>
+        <v>45443.58664473973</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -7872,22 +8823,31 @@
         <v>7300</v>
       </c>
       <c r="Q106" t="n">
-        <v>264.0000000000008</v>
+        <v>255.0000000000002</v>
       </c>
       <c r="R106" t="n">
         <v>2</v>
       </c>
       <c r="S106" t="n">
-        <v>32612.80000000016</v>
+        <v>30856.00000000004</v>
       </c>
       <c r="T106" t="n">
-        <v>535.0000000000008</v>
+        <v>535.0000000000002</v>
       </c>
       <c r="U106" t="n">
         <v>3</v>
       </c>
       <c r="V106" t="n">
-        <v>98026.50000000023</v>
+        <v>98026.50000000006</v>
+      </c>
+      <c r="W106" t="n">
+        <v>83599.58664473977</v>
+      </c>
+      <c r="X106" t="n">
+        <v>105326.5000000001</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>21726.91335526029</v>
       </c>
     </row>
     <row r="107">
@@ -7900,7 +8860,7 @@
         <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>498.0000000000003</v>
+        <v>497.9999999999994</v>
       </c>
       <c r="D107" t="n">
         <v>3</v>
@@ -7915,10 +8875,10 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I107" t="n">
-        <v>41489.10589386259</v>
+        <v>40505.06856036318</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -7942,22 +8902,31 @@
         <v>7300</v>
       </c>
       <c r="Q107" t="n">
-        <v>246.0000000000003</v>
+        <v>248.9999999999994</v>
       </c>
       <c r="R107" t="n">
         <v>2</v>
       </c>
       <c r="S107" t="n">
-        <v>29099.20000000006</v>
+        <v>29684.79999999989</v>
       </c>
       <c r="T107" t="n">
-        <v>498.0000000000003</v>
+        <v>497.9999999999994</v>
       </c>
       <c r="U107" t="n">
         <v>3</v>
       </c>
       <c r="V107" t="n">
-        <v>87374.20000000008</v>
+        <v>87374.19999999984</v>
+      </c>
+      <c r="W107" t="n">
+        <v>77489.86856036307</v>
+      </c>
+      <c r="X107" t="n">
+        <v>94674.19999999984</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>17184.33143963676</v>
       </c>
     </row>
     <row r="108">
@@ -7970,19 +8939,19 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>159.7439471031482</v>
+        <v>160.1976885180801</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>167.4289404247078</v>
+        <v>169.7447674490059</v>
       </c>
       <c r="F108" t="n">
-        <v>-70</v>
+        <v>-139</v>
       </c>
       <c r="G108" t="n">
-        <v>7.684993321559631</v>
+        <v>9.547078930925778</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7991,34 +8960,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-47</v>
+        <v>-37</v>
       </c>
       <c r="K108" t="n">
-        <v>-7456.295118634314</v>
+        <v>-6157.358421028332</v>
       </c>
       <c r="L108" t="n">
-        <v>-47</v>
+        <v>132.7447674490059</v>
       </c>
       <c r="M108" t="n">
         <v>78.15766666666667</v>
       </c>
       <c r="N108" t="n">
-        <v>-600.6411463620171</v>
+        <v>-746.1774127236533</v>
       </c>
       <c r="O108" t="n">
-        <v>3622.950000000001</v>
+        <v>-10215.11347647932</v>
       </c>
       <c r="P108" t="n">
         <v>910</v>
       </c>
       <c r="Q108" t="n">
-        <v>159.7439471031482</v>
+        <v>160.1976885180801</v>
       </c>
       <c r="R108" t="n">
         <v>1</v>
       </c>
       <c r="S108" t="n">
-        <v>16070.24107857671</v>
+        <v>16115.88746491886</v>
       </c>
       <c r="T108" t="n">
         <v>0</v>
@@ -8028,6 +8997,15 @@
       </c>
       <c r="V108" t="n">
         <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>653.4155674112008</v>
+      </c>
+      <c r="X108" t="n">
+        <v>163.8225872763467</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>-489.5929801348541</v>
       </c>
     </row>
     <row r="109">
@@ -8040,19 +9018,19 @@
         <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>54.34797203695981</v>
+        <v>54.48651356092459</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>382.4896275728931</v>
+        <v>385.7316451124682</v>
       </c>
       <c r="F109" t="n">
-        <v>-248</v>
+        <v>-360</v>
       </c>
       <c r="G109" t="n">
-        <v>328.1416555359334</v>
+        <v>331.2451315515436</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8061,34 +9039,34 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-207</v>
+        <v>-198</v>
       </c>
       <c r="K109" t="n">
-        <v>-35492.9794184429</v>
+        <v>-33458.01931565575</v>
       </c>
       <c r="L109" t="n">
-        <v>-207</v>
+        <v>187.7316451124682</v>
       </c>
       <c r="M109" t="n">
         <v>78.15766666666667</v>
       </c>
       <c r="N109" t="n">
-        <v>-25646.78613282564</v>
+        <v>-25889.34657676169</v>
       </c>
       <c r="O109" t="n">
-        <v>15861.79</v>
+        <v>-14595.80551154919</v>
       </c>
       <c r="P109" t="n">
         <v>910</v>
       </c>
       <c r="Q109" t="n">
-        <v>54.34797203695981</v>
+        <v>54.48651356092459</v>
       </c>
       <c r="R109" t="n">
         <v>1</v>
       </c>
       <c r="S109" t="n">
-        <v>5467.405986918156</v>
+        <v>5481.343264229014</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
@@ -8098,6 +9076,15 @@
       </c>
       <c r="V109" t="n">
         <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>-41662.48156297593</v>
+      </c>
+      <c r="X109" t="n">
+        <v>-24979.34657676169</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>16683.13498621423</v>
       </c>
     </row>
     <row r="110">
@@ -8110,7 +9097,7 @@
         <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>69.99999999999994</v>
+        <v>70</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -8152,22 +9139,31 @@
         <v>910</v>
       </c>
       <c r="Q110" t="n">
-        <v>69.99999999999994</v>
+        <v>70</v>
       </c>
       <c r="R110" t="n">
         <v>1</v>
       </c>
       <c r="S110" t="n">
-        <v>7041.999999999994</v>
+        <v>7042</v>
       </c>
       <c r="T110" t="n">
-        <v>69.99999999999994</v>
+        <v>70</v>
       </c>
       <c r="U110" t="n">
         <v>1</v>
       </c>
       <c r="V110" t="n">
-        <v>7041.999999999994</v>
+        <v>7042</v>
+      </c>
+      <c r="W110" t="n">
+        <v>7952</v>
+      </c>
+      <c r="X110" t="n">
+        <v>7952</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -8180,19 +9176,19 @@
         <v>11</v>
       </c>
       <c r="C111" t="n">
-        <v>58.5783238335992</v>
+        <v>57.26999524316277</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>215.2633171551591</v>
+        <v>215.8170741740888</v>
       </c>
       <c r="F111" t="n">
-        <v>-97</v>
+        <v>-184</v>
       </c>
       <c r="G111" t="n">
-        <v>156.6849933215599</v>
+        <v>158.547078930926</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8201,34 +9197,34 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-99</v>
+        <v>-94</v>
       </c>
       <c r="K111" t="n">
-        <v>-16826.60620144655</v>
+        <v>-15362.54913274846</v>
       </c>
       <c r="L111" t="n">
-        <v>-99</v>
+        <v>121.8170741740888</v>
       </c>
       <c r="M111" t="n">
         <v>78.15766666666667</v>
       </c>
       <c r="N111" t="n">
-        <v>-12246.13347969537</v>
+        <v>-12391.66974605701</v>
       </c>
       <c r="O111" t="n">
-        <v>7626.54</v>
+        <v>-9446.449130930132</v>
       </c>
       <c r="P111" t="n">
         <v>910</v>
       </c>
       <c r="Q111" t="n">
-        <v>58.5783238335992</v>
+        <v>57.26999524316277</v>
       </c>
       <c r="R111" t="n">
         <v>1</v>
       </c>
       <c r="S111" t="n">
-        <v>5892.979377660079</v>
+        <v>5761.361521462174</v>
       </c>
       <c r="T111" t="n">
         <v>0</v>
@@ -8238,6 +9234,15 @@
       </c>
       <c r="V111" t="n">
         <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>-18137.63674221642</v>
+      </c>
+      <c r="X111" t="n">
+        <v>-11481.66974605701</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>6655.966996159412</v>
       </c>
     </row>
     <row r="112">
@@ -8250,19 +9255,19 @@
         <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>127.9719489461446</v>
+        <v>128.1933131783138</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>185.2509995785998</v>
+        <v>186.4544880388463</v>
       </c>
       <c r="F112" t="n">
-        <v>-82</v>
+        <v>-155</v>
       </c>
       <c r="G112" t="n">
-        <v>57.2790506324553</v>
+        <v>58.26117486053241</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8271,34 +9276,34 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-83</v>
+        <v>-72</v>
       </c>
       <c r="K112" t="n">
-        <v>-13759.70645032325</v>
+        <v>-11920.27932307921</v>
       </c>
       <c r="L112" t="n">
-        <v>-83</v>
+        <v>114.4544880388463</v>
       </c>
       <c r="M112" t="n">
         <v>81.35139784946237</v>
       </c>
       <c r="N112" t="n">
-        <v>-4659.73083644037</v>
+        <v>-4739.628015256268</v>
       </c>
       <c r="O112" t="n">
-        <v>6734.990000000001</v>
+        <v>-9274.830791512728</v>
       </c>
       <c r="P112" t="n">
         <v>910</v>
       </c>
       <c r="Q112" t="n">
-        <v>127.9719489461446</v>
+        <v>128.1933131783138</v>
       </c>
       <c r="R112" t="n">
         <v>1</v>
       </c>
       <c r="S112" t="n">
-        <v>12873.97806398214</v>
+        <v>12896.24730573837</v>
       </c>
       <c r="T112" t="n">
         <v>0</v>
@@ -8308,6 +9313,15 @@
       </c>
       <c r="V112" t="n">
         <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>-7388.86280885357</v>
+      </c>
+      <c r="X112" t="n">
+        <v>-3829.628015256268</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3559.234793597302</v>
       </c>
     </row>
     <row r="113">
@@ -8320,7 +9334,7 @@
         <v>12</v>
       </c>
       <c r="C113" t="n">
-        <v>329.0000000000003</v>
+        <v>329.0000000000002</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -8335,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I113" t="n">
-        <v>22493.95160676171</v>
+        <v>22001.80160528716</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -8362,22 +9376,31 @@
         <v>1600</v>
       </c>
       <c r="Q113" t="n">
-        <v>197.0000000000003</v>
+        <v>198.0000000000002</v>
       </c>
       <c r="R113" t="n">
         <v>1</v>
       </c>
       <c r="S113" t="n">
-        <v>19818.20000000003</v>
+        <v>19918.80000000002</v>
       </c>
       <c r="T113" t="n">
-        <v>329.0000000000003</v>
+        <v>329.0000000000002</v>
       </c>
       <c r="U113" t="n">
         <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>45300.80000000005</v>
+        <v>45300.80000000003</v>
+      </c>
+      <c r="W113" t="n">
+        <v>43520.60160528719</v>
+      </c>
+      <c r="X113" t="n">
+        <v>46900.80000000003</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3380.198394712846</v>
       </c>
     </row>
     <row r="114">
@@ -8390,7 +9413,7 @@
         <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>484.0000000000009</v>
+        <v>483.9999999999998</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -8405,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I114" t="n">
-        <v>35843.39335135884</v>
+        <v>34406.52664613965</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -8432,22 +9455,31 @@
         <v>7300</v>
       </c>
       <c r="Q114" t="n">
-        <v>268.0000000000009</v>
+        <v>273.9999999999998</v>
       </c>
       <c r="R114" t="n">
         <v>2</v>
       </c>
       <c r="S114" t="n">
-        <v>33393.60000000018</v>
+        <v>34564.79999999997</v>
       </c>
       <c r="T114" t="n">
-        <v>484.0000000000009</v>
+        <v>483.9999999999998</v>
       </c>
       <c r="U114" t="n">
         <v>3</v>
       </c>
       <c r="V114" t="n">
-        <v>83343.60000000027</v>
+        <v>83343.59999999995</v>
+      </c>
+      <c r="W114" t="n">
+        <v>76271.32664613961</v>
+      </c>
+      <c r="X114" t="n">
+        <v>90643.59999999995</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>14372.27335386034</v>
       </c>
     </row>
     <row r="115">
@@ -8460,19 +9492,19 @@
         <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>132.1152913865499</v>
+        <v>133.0448435052683</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>349.9137091073083</v>
+        <v>352.4801349394893</v>
       </c>
       <c r="F115" t="n">
-        <v>-225</v>
+        <v>-320</v>
       </c>
       <c r="G115" t="n">
-        <v>217.7984177207584</v>
+        <v>219.4352914342209</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8481,34 +9513,34 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>-194</v>
+        <v>-205</v>
       </c>
       <c r="K115" t="n">
-        <v>-32764.01039282518</v>
+        <v>-34251.04694029967</v>
       </c>
       <c r="L115" t="n">
-        <v>-194</v>
+        <v>147.4801349394893</v>
       </c>
       <c r="M115" t="n">
         <v>81.35139784946237</v>
       </c>
       <c r="N115" t="n">
-        <v>-17718.20573098481</v>
+        <v>-17851.36769567803</v>
       </c>
       <c r="O115" t="n">
-        <v>15724.04</v>
+        <v>-11995.060353498</v>
       </c>
       <c r="P115" t="n">
         <v>910</v>
       </c>
       <c r="Q115" t="n">
-        <v>132.1152913865499</v>
+        <v>133.0448435052683</v>
       </c>
       <c r="R115" t="n">
         <v>1</v>
       </c>
       <c r="S115" t="n">
-        <v>13290.79831348692</v>
+        <v>13384.31125663</v>
       </c>
       <c r="T115" t="n">
         <v>0</v>
@@ -8518,6 +9550,15 @@
       </c>
       <c r="V115" t="n">
         <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>-31951.79603716767</v>
+      </c>
+      <c r="X115" t="n">
+        <v>-16941.36769567803</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>15010.42834148965</v>
       </c>
     </row>
     <row r="116">
@@ -8530,7 +9571,7 @@
         <v>12</v>
       </c>
       <c r="C116" t="n">
-        <v>235.0000000000003</v>
+        <v>234.9999999999999</v>
       </c>
       <c r="D116" t="n">
         <v>2</v>
@@ -8545,10 +9586,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I116" t="n">
-        <v>6965.151488923772</v>
+        <v>6469.760515443714</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -8572,22 +9613,31 @@
         <v>1600</v>
       </c>
       <c r="Q116" t="n">
-        <v>198.0000000000003</v>
+        <v>199.9999999999999</v>
       </c>
       <c r="R116" t="n">
         <v>1</v>
       </c>
       <c r="S116" t="n">
-        <v>19918.80000000003</v>
+        <v>20119.99999999999</v>
       </c>
       <c r="T116" t="n">
-        <v>235.0000000000003</v>
+        <v>234.9999999999999</v>
       </c>
       <c r="U116" t="n">
         <v>2</v>
       </c>
       <c r="V116" t="n">
-        <v>26952.00000000005</v>
+        <v>26951.99999999998</v>
+      </c>
+      <c r="W116" t="n">
+        <v>28189.7605154437</v>
+      </c>
+      <c r="X116" t="n">
+        <v>28551.99999999998</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>362.2394845562776</v>
       </c>
     </row>
     <row r="117">
@@ -8648,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="S117" t="n">
-        <v>15190.59999999999</v>
+        <v>15190.59999999998</v>
       </c>
       <c r="T117" t="n">
         <v>150.9999999999999</v>
@@ -8657,7 +9707,16 @@
         <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>15190.59999999999</v>
+        <v>15190.59999999998</v>
+      </c>
+      <c r="W117" t="n">
+        <v>16100.59999999998</v>
+      </c>
+      <c r="X117" t="n">
+        <v>16100.59999999998</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -8670,34 +9729,34 @@
         <v>12</v>
       </c>
       <c r="C118" t="n">
-        <v>224.7019492156455</v>
+        <v>223.2832955694102</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>150.9809998481005</v>
+        <v>150.5444704299434</v>
       </c>
       <c r="F118" t="n">
-        <v>-63</v>
+        <v>-120</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>159.1328741307444</v>
+        <v>378.440411661595</v>
       </c>
       <c r="J118" t="n">
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="K118" t="n">
-        <v>-4311.808162469047</v>
+        <v>-5536.890072816602</v>
       </c>
       <c r="L118" t="n">
-        <v>-25</v>
+        <v>117.5444704299434</v>
       </c>
       <c r="M118" t="n">
         <v>81.35139784946237</v>
@@ -8706,28 +9765,37 @@
         <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>2016.13</v>
+        <v>-9694.105097200609</v>
       </c>
       <c r="P118" t="n">
         <v>1600</v>
       </c>
       <c r="Q118" t="n">
-        <v>223.7019492156455</v>
+        <v>221.2832955694102</v>
       </c>
       <c r="R118" t="n">
         <v>2</v>
       </c>
       <c r="S118" t="n">
-        <v>24746.620486894</v>
+        <v>24274.49929514887</v>
       </c>
       <c r="T118" t="n">
-        <v>73.72094936754493</v>
+        <v>72.73882513946677</v>
       </c>
       <c r="U118" t="n">
         <v>1</v>
       </c>
       <c r="V118" t="n">
-        <v>7416.32750637502</v>
+        <v>7317.525809030357</v>
+      </c>
+      <c r="W118" t="n">
+        <v>11021.94453679326</v>
+      </c>
+      <c r="X118" t="n">
+        <v>8917.525809030358</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>-2104.418727762899</v>
       </c>
     </row>
     <row r="119">
@@ -8740,19 +9808,19 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>193.7547699987636</v>
+        <v>197.0033883962531</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>315.5531877195228</v>
+        <v>320.4386798304737</v>
       </c>
       <c r="F119" t="n">
-        <v>-204</v>
+        <v>-291</v>
       </c>
       <c r="G119" t="n">
-        <v>121.7984177207593</v>
+        <v>123.4352914342206</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8761,34 +9829,34 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>-149</v>
+        <v>-165</v>
       </c>
       <c r="K119" t="n">
-        <v>-25145.85700659713</v>
+        <v>-27506.49861908927</v>
       </c>
       <c r="L119" t="n">
-        <v>-149</v>
+        <v>155.4386798304737</v>
       </c>
       <c r="M119" t="n">
         <v>81.35139784946237</v>
       </c>
       <c r="N119" t="n">
-        <v>-9908.471537436495</v>
+        <v>-10041.63350212962</v>
       </c>
       <c r="O119" t="n">
-        <v>12054.89</v>
+        <v>-12595.54862459225</v>
       </c>
       <c r="P119" t="n">
         <v>910</v>
       </c>
       <c r="Q119" t="n">
-        <v>193.7547699987636</v>
+        <v>197.0033883962531</v>
       </c>
       <c r="R119" t="n">
         <v>1</v>
       </c>
       <c r="S119" t="n">
-        <v>19491.72986187561</v>
+        <v>19818.54087266306</v>
       </c>
       <c r="T119" t="n">
         <v>0</v>
@@ -8798,6 +9866,15 @@
       </c>
       <c r="V119" t="n">
         <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>-19373.50637101847</v>
+      </c>
+      <c r="X119" t="n">
+        <v>-9131.633502129618</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>10241.87286888885</v>
       </c>
     </row>
     <row r="120">
@@ -8810,7 +9887,7 @@
         <v>12</v>
       </c>
       <c r="C120" t="n">
-        <v>494.9999999999996</v>
+        <v>495.0000000000001</v>
       </c>
       <c r="D120" t="n">
         <v>3</v>
@@ -8825,10 +9902,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I120" t="n">
-        <v>34633.61499918551</v>
+        <v>37184.16490442882</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -8852,22 +9929,31 @@
         <v>7300</v>
       </c>
       <c r="Q120" t="n">
-        <v>281.9999999999996</v>
+        <v>269.0000000000001</v>
       </c>
       <c r="R120" t="n">
         <v>2</v>
       </c>
       <c r="S120" t="n">
-        <v>36126.39999999992</v>
+        <v>33588.80000000002</v>
       </c>
       <c r="T120" t="n">
-        <v>494.9999999999996</v>
+        <v>495.0000000000001</v>
       </c>
       <c r="U120" t="n">
         <v>3</v>
       </c>
       <c r="V120" t="n">
-        <v>86510.49999999988</v>
+        <v>86510.50000000003</v>
+      </c>
+      <c r="W120" t="n">
+        <v>78072.96490442884</v>
+      </c>
+      <c r="X120" t="n">
+        <v>93810.50000000003</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>15737.53509557119</v>
       </c>
     </row>
     <row r="121">
@@ -8880,19 +9966,19 @@
         <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>54.32015793572536</v>
+        <v>54.62133195639719</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>222.5992085681804</v>
+        <v>223.8825068169301</v>
       </c>
       <c r="F121" t="n">
-        <v>-106</v>
+        <v>-194</v>
       </c>
       <c r="G121" t="n">
-        <v>168.2790506324551</v>
+        <v>169.2611748605329</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8901,34 +9987,34 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-148</v>
+        <v>-129</v>
       </c>
       <c r="K121" t="n">
-        <v>-24462.00690281027</v>
+        <v>-21430.71768681888</v>
       </c>
       <c r="L121" t="n">
-        <v>-148</v>
+        <v>94.88250681693015</v>
       </c>
       <c r="M121" t="n">
         <v>81.35139784946237</v>
       </c>
       <c r="N121" t="n">
-        <v>-13689.73599773068</v>
+        <v>-13769.63317654663</v>
       </c>
       <c r="O121" t="n">
-        <v>11991.06</v>
+        <v>-7675.049656047473</v>
       </c>
       <c r="P121" t="n">
         <v>910</v>
       </c>
       <c r="Q121" t="n">
-        <v>54.32015793572536</v>
+        <v>54.62133195639719</v>
       </c>
       <c r="R121" t="n">
         <v>1</v>
       </c>
       <c r="S121" t="n">
-        <v>5464.607888333971</v>
+        <v>5494.905994813557</v>
       </c>
       <c r="T121" t="n">
         <v>0</v>
@@ -8938,6 +10024,15 @@
       </c>
       <c r="V121" t="n">
         <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>-22700.8613480528</v>
+      </c>
+      <c r="X121" t="n">
+        <v>-12859.63317654663</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>9841.228171506162</v>
       </c>
     </row>
   </sheetData>
